--- a/Personal_Fit_Model/nyc_income.xlsx
+++ b/Personal_Fit_Model/nyc_income.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\realtor-insights\Personal_Fit_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B94B371-D6A1-44EA-8CCC-25151AAA3D38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99D2C81-3299-4477-B6E5-274E62213693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4F051447-DCC6-40C1-8F18-DDF2D0A761A5}"/>
+    <workbookView xWindow="4380" yWindow="960" windowWidth="18168" windowHeight="11952" xr2:uid="{4F051447-DCC6-40C1-8F18-DDF2D0A761A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t>Total households</t>
   </si>
@@ -104,9 +104,6 @@
     <t>BK78 Bushwick South</t>
   </si>
   <si>
-    <t>BK99 park-cemetery-etc-Brooklyn</t>
-  </si>
-  <si>
     <t>BK82 East New York</t>
   </si>
   <si>
@@ -329,9 +326,6 @@
     <t>BX62 Woodlawn-Wakefield</t>
   </si>
   <si>
-    <t>BX99 park-cemetery-etc-Bronx</t>
-  </si>
-  <si>
     <t>MN23 West Village</t>
   </si>
   <si>
@@ -416,9 +410,6 @@
     <t>MN36 Washington Heights South</t>
   </si>
   <si>
-    <t>MN99 park-cemetery-etc-Manhattan</t>
-  </si>
-  <si>
     <t>QN68 Queensbridge-Ravenswood-Long Island City</t>
   </si>
   <si>
@@ -429,9 +420,6 @@
   </si>
   <si>
     <t>QN72 Steinway</t>
-  </si>
-  <si>
-    <t>QN99 park-cemetery-etc-Queens</t>
   </si>
   <si>
     <t>QN31 Hunters Point-Sunnyside-West Maspeth</t>
@@ -1095,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AEE11C-BB15-4D6F-89ED-3627F92E2F3F}">
-  <dimension ref="A1:L193"/>
+  <dimension ref="A1:L189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1608,37 +1596,37 @@
         <v>23</v>
       </c>
       <c r="B14" s="7">
-        <v>170</v>
+        <v>30771</v>
       </c>
       <c r="C14" s="4">
-        <v>0</v>
+        <v>6309</v>
       </c>
       <c r="D14" s="4">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="E14" s="4">
-        <v>0</v>
+        <v>3959</v>
       </c>
       <c r="F14" s="4">
-        <v>36</v>
+        <v>3563</v>
       </c>
       <c r="G14" s="4">
-        <v>46</v>
+        <v>4598</v>
       </c>
       <c r="H14" s="4">
-        <v>56</v>
+        <v>4799</v>
       </c>
       <c r="I14" s="4">
-        <v>0</v>
+        <v>2267</v>
       </c>
       <c r="J14" s="4">
-        <v>19</v>
+        <v>2208</v>
       </c>
       <c r="K14" s="4">
-        <v>7</v>
+        <v>575</v>
       </c>
       <c r="L14" s="4">
-        <v>6</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1646,37 +1634,37 @@
         <v>24</v>
       </c>
       <c r="B15" s="7">
-        <v>30771</v>
+        <v>13634</v>
       </c>
       <c r="C15" s="4">
-        <v>6309</v>
+        <v>2187</v>
       </c>
       <c r="D15" s="4">
-        <v>2262</v>
+        <v>1030</v>
       </c>
       <c r="E15" s="4">
-        <v>3959</v>
+        <v>1486</v>
       </c>
       <c r="F15" s="4">
-        <v>3563</v>
+        <v>1348</v>
       </c>
       <c r="G15" s="4">
-        <v>4598</v>
+        <v>2054</v>
       </c>
       <c r="H15" s="4">
-        <v>4799</v>
+        <v>2515</v>
       </c>
       <c r="I15" s="4">
-        <v>2267</v>
+        <v>1207</v>
       </c>
       <c r="J15" s="4">
-        <v>2208</v>
+        <v>1205</v>
       </c>
       <c r="K15" s="4">
-        <v>575</v>
+        <v>332</v>
       </c>
       <c r="L15" s="4">
-        <v>231</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1684,37 +1672,37 @@
         <v>25</v>
       </c>
       <c r="B16" s="7">
-        <v>13634</v>
+        <v>6378</v>
       </c>
       <c r="C16" s="4">
-        <v>2187</v>
+        <v>1521</v>
       </c>
       <c r="D16" s="4">
-        <v>1030</v>
+        <v>807</v>
       </c>
       <c r="E16" s="4">
-        <v>1486</v>
+        <v>884</v>
       </c>
       <c r="F16" s="4">
-        <v>1348</v>
+        <v>654</v>
       </c>
       <c r="G16" s="4">
-        <v>2054</v>
+        <v>976</v>
       </c>
       <c r="H16" s="4">
-        <v>2515</v>
+        <v>930</v>
       </c>
       <c r="I16" s="4">
-        <v>1207</v>
+        <v>335</v>
       </c>
       <c r="J16" s="4">
-        <v>1205</v>
+        <v>155</v>
       </c>
       <c r="K16" s="4">
-        <v>332</v>
+        <v>63</v>
       </c>
       <c r="L16" s="4">
-        <v>270</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1722,37 +1710,37 @@
         <v>26</v>
       </c>
       <c r="B17" s="7">
-        <v>6378</v>
+        <v>17628</v>
       </c>
       <c r="C17" s="4">
-        <v>1521</v>
+        <v>1592</v>
       </c>
       <c r="D17" s="4">
-        <v>807</v>
+        <v>863</v>
       </c>
       <c r="E17" s="4">
-        <v>884</v>
+        <v>1182</v>
       </c>
       <c r="F17" s="4">
-        <v>654</v>
+        <v>1153</v>
       </c>
       <c r="G17" s="4">
-        <v>976</v>
+        <v>1576</v>
       </c>
       <c r="H17" s="4">
-        <v>930</v>
+        <v>2545</v>
       </c>
       <c r="I17" s="4">
-        <v>335</v>
+        <v>1852</v>
       </c>
       <c r="J17" s="4">
-        <v>155</v>
+        <v>2990</v>
       </c>
       <c r="K17" s="4">
-        <v>63</v>
+        <v>1535</v>
       </c>
       <c r="L17" s="4">
-        <v>53</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1760,37 +1748,37 @@
         <v>27</v>
       </c>
       <c r="B18" s="7">
-        <v>17628</v>
+        <v>31068</v>
       </c>
       <c r="C18" s="4">
-        <v>1592</v>
+        <v>1241</v>
       </c>
       <c r="D18" s="4">
-        <v>863</v>
+        <v>801</v>
       </c>
       <c r="E18" s="4">
-        <v>1182</v>
+        <v>1404</v>
       </c>
       <c r="F18" s="4">
-        <v>1153</v>
+        <v>1261</v>
       </c>
       <c r="G18" s="4">
-        <v>1576</v>
+        <v>2596</v>
       </c>
       <c r="H18" s="4">
-        <v>2545</v>
+        <v>4804</v>
       </c>
       <c r="I18" s="4">
-        <v>1852</v>
+        <v>3903</v>
       </c>
       <c r="J18" s="4">
-        <v>2990</v>
+        <v>6083</v>
       </c>
       <c r="K18" s="4">
-        <v>1535</v>
+        <v>3590</v>
       </c>
       <c r="L18" s="4">
-        <v>2340</v>
+        <v>5385</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1798,37 +1786,37 @@
         <v>28</v>
       </c>
       <c r="B19" s="7">
-        <v>31068</v>
+        <v>17023</v>
       </c>
       <c r="C19" s="4">
-        <v>1241</v>
+        <v>1798</v>
       </c>
       <c r="D19" s="4">
-        <v>801</v>
+        <v>1172</v>
       </c>
       <c r="E19" s="4">
-        <v>1404</v>
+        <v>2348</v>
       </c>
       <c r="F19" s="4">
-        <v>1261</v>
+        <v>1913</v>
       </c>
       <c r="G19" s="4">
-        <v>2596</v>
+        <v>2571</v>
       </c>
       <c r="H19" s="4">
-        <v>4804</v>
+        <v>2909</v>
       </c>
       <c r="I19" s="4">
-        <v>3903</v>
+        <v>1644</v>
       </c>
       <c r="J19" s="4">
-        <v>6083</v>
+        <v>1824</v>
       </c>
       <c r="K19" s="4">
-        <v>3590</v>
+        <v>425</v>
       </c>
       <c r="L19" s="4">
-        <v>5385</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1836,37 +1824,37 @@
         <v>29</v>
       </c>
       <c r="B20" s="7">
-        <v>17023</v>
+        <v>20544</v>
       </c>
       <c r="C20" s="4">
-        <v>1798</v>
+        <v>2385</v>
       </c>
       <c r="D20" s="4">
-        <v>1172</v>
+        <v>1841</v>
       </c>
       <c r="E20" s="4">
-        <v>2348</v>
+        <v>3308</v>
       </c>
       <c r="F20" s="4">
-        <v>1913</v>
+        <v>2751</v>
       </c>
       <c r="G20" s="4">
-        <v>2571</v>
+        <v>3077</v>
       </c>
       <c r="H20" s="4">
-        <v>2909</v>
+        <v>3230</v>
       </c>
       <c r="I20" s="4">
-        <v>1644</v>
+        <v>1766</v>
       </c>
       <c r="J20" s="4">
-        <v>1824</v>
+        <v>1492</v>
       </c>
       <c r="K20" s="4">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="L20" s="4">
-        <v>419</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1874,37 +1862,37 @@
         <v>30</v>
       </c>
       <c r="B21" s="7">
-        <v>20544</v>
+        <v>9510</v>
       </c>
       <c r="C21" s="4">
-        <v>2385</v>
+        <v>611</v>
       </c>
       <c r="D21" s="4">
-        <v>1841</v>
+        <v>300</v>
       </c>
       <c r="E21" s="4">
-        <v>3308</v>
+        <v>635</v>
       </c>
       <c r="F21" s="4">
-        <v>2751</v>
+        <v>740</v>
       </c>
       <c r="G21" s="4">
-        <v>3077</v>
+        <v>776</v>
       </c>
       <c r="H21" s="4">
-        <v>3230</v>
+        <v>1391</v>
       </c>
       <c r="I21" s="4">
-        <v>1766</v>
+        <v>1356</v>
       </c>
       <c r="J21" s="4">
-        <v>1492</v>
+        <v>1858</v>
       </c>
       <c r="K21" s="4">
-        <v>407</v>
+        <v>841</v>
       </c>
       <c r="L21" s="4">
-        <v>287</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1912,37 +1900,37 @@
         <v>31</v>
       </c>
       <c r="B22" s="7">
-        <v>9510</v>
+        <v>40818</v>
       </c>
       <c r="C22" s="4">
-        <v>611</v>
+        <v>6695</v>
       </c>
       <c r="D22" s="4">
-        <v>300</v>
+        <v>3759</v>
       </c>
       <c r="E22" s="4">
-        <v>635</v>
+        <v>4918</v>
       </c>
       <c r="F22" s="4">
-        <v>740</v>
+        <v>4495</v>
       </c>
       <c r="G22" s="4">
-        <v>776</v>
+        <v>6357</v>
       </c>
       <c r="H22" s="4">
-        <v>1391</v>
+        <v>6412</v>
       </c>
       <c r="I22" s="4">
-        <v>1356</v>
+        <v>3401</v>
       </c>
       <c r="J22" s="4">
-        <v>1858</v>
+        <v>3290</v>
       </c>
       <c r="K22" s="4">
-        <v>841</v>
+        <v>907</v>
       </c>
       <c r="L22" s="4">
-        <v>1002</v>
+        <v>584</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -1950,37 +1938,37 @@
         <v>32</v>
       </c>
       <c r="B23" s="7">
-        <v>40818</v>
+        <v>9394</v>
       </c>
       <c r="C23" s="4">
-        <v>6695</v>
+        <v>542</v>
       </c>
       <c r="D23" s="4">
-        <v>3759</v>
+        <v>250</v>
       </c>
       <c r="E23" s="4">
-        <v>4918</v>
+        <v>720</v>
       </c>
       <c r="F23" s="4">
-        <v>4495</v>
+        <v>576</v>
       </c>
       <c r="G23" s="4">
-        <v>6357</v>
+        <v>769</v>
       </c>
       <c r="H23" s="4">
-        <v>6412</v>
+        <v>1623</v>
       </c>
       <c r="I23" s="4">
-        <v>3401</v>
+        <v>1080</v>
       </c>
       <c r="J23" s="4">
-        <v>3290</v>
+        <v>1937</v>
       </c>
       <c r="K23" s="4">
-        <v>907</v>
+        <v>850</v>
       </c>
       <c r="L23" s="4">
-        <v>584</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -1988,37 +1976,37 @@
         <v>33</v>
       </c>
       <c r="B24" s="7">
-        <v>9394</v>
+        <v>26016</v>
       </c>
       <c r="C24" s="4">
-        <v>542</v>
+        <v>2851</v>
       </c>
       <c r="D24" s="4">
-        <v>250</v>
+        <v>1836</v>
       </c>
       <c r="E24" s="4">
-        <v>720</v>
+        <v>3239</v>
       </c>
       <c r="F24" s="4">
-        <v>576</v>
+        <v>3401</v>
       </c>
       <c r="G24" s="4">
-        <v>769</v>
+        <v>3974</v>
       </c>
       <c r="H24" s="4">
-        <v>1623</v>
+        <v>5219</v>
       </c>
       <c r="I24" s="4">
-        <v>1080</v>
+        <v>2316</v>
       </c>
       <c r="J24" s="4">
-        <v>1937</v>
+        <v>2022</v>
       </c>
       <c r="K24" s="4">
-        <v>850</v>
+        <v>771</v>
       </c>
       <c r="L24" s="4">
-        <v>1047</v>
+        <v>387</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -2026,37 +2014,37 @@
         <v>34</v>
       </c>
       <c r="B25" s="7">
-        <v>26016</v>
+        <v>14662</v>
       </c>
       <c r="C25" s="4">
-        <v>2851</v>
+        <v>2083</v>
       </c>
       <c r="D25" s="4">
-        <v>1836</v>
+        <v>1204</v>
       </c>
       <c r="E25" s="4">
-        <v>3239</v>
+        <v>2115</v>
       </c>
       <c r="F25" s="4">
-        <v>3401</v>
+        <v>1641</v>
       </c>
       <c r="G25" s="4">
-        <v>3974</v>
+        <v>1917</v>
       </c>
       <c r="H25" s="4">
-        <v>5219</v>
+        <v>2205</v>
       </c>
       <c r="I25" s="4">
-        <v>2316</v>
+        <v>1551</v>
       </c>
       <c r="J25" s="4">
-        <v>2022</v>
+        <v>1336</v>
       </c>
       <c r="K25" s="4">
-        <v>771</v>
+        <v>324</v>
       </c>
       <c r="L25" s="4">
-        <v>387</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -2064,37 +2052,37 @@
         <v>35</v>
       </c>
       <c r="B26" s="7">
-        <v>14662</v>
+        <v>14966</v>
       </c>
       <c r="C26" s="4">
-        <v>2083</v>
+        <v>793</v>
       </c>
       <c r="D26" s="4">
-        <v>1204</v>
+        <v>744</v>
       </c>
       <c r="E26" s="4">
-        <v>2115</v>
+        <v>1647</v>
       </c>
       <c r="F26" s="4">
-        <v>1641</v>
+        <v>1783</v>
       </c>
       <c r="G26" s="4">
-        <v>1917</v>
+        <v>1885</v>
       </c>
       <c r="H26" s="4">
-        <v>2205</v>
+        <v>2860</v>
       </c>
       <c r="I26" s="4">
-        <v>1551</v>
+        <v>1678</v>
       </c>
       <c r="J26" s="4">
-        <v>1336</v>
+        <v>2063</v>
       </c>
       <c r="K26" s="4">
-        <v>324</v>
+        <v>907</v>
       </c>
       <c r="L26" s="4">
-        <v>286</v>
+        <v>606</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -2102,37 +2090,37 @@
         <v>36</v>
       </c>
       <c r="B27" s="7">
-        <v>14966</v>
+        <v>34990</v>
       </c>
       <c r="C27" s="4">
-        <v>793</v>
+        <v>2495</v>
       </c>
       <c r="D27" s="4">
-        <v>744</v>
+        <v>1683</v>
       </c>
       <c r="E27" s="4">
-        <v>1647</v>
+        <v>3626</v>
       </c>
       <c r="F27" s="4">
-        <v>1783</v>
+        <v>3151</v>
       </c>
       <c r="G27" s="4">
-        <v>1885</v>
+        <v>4614</v>
       </c>
       <c r="H27" s="4">
-        <v>2860</v>
+        <v>5995</v>
       </c>
       <c r="I27" s="4">
-        <v>1678</v>
+        <v>4388</v>
       </c>
       <c r="J27" s="4">
-        <v>2063</v>
+        <v>4464</v>
       </c>
       <c r="K27" s="4">
-        <v>907</v>
+        <v>2481</v>
       </c>
       <c r="L27" s="4">
-        <v>606</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -2140,37 +2128,37 @@
         <v>37</v>
       </c>
       <c r="B28" s="7">
-        <v>34990</v>
+        <v>10726</v>
       </c>
       <c r="C28" s="4">
-        <v>2495</v>
+        <v>966</v>
       </c>
       <c r="D28" s="4">
-        <v>1683</v>
+        <v>868</v>
       </c>
       <c r="E28" s="4">
-        <v>3626</v>
+        <v>1096</v>
       </c>
       <c r="F28" s="4">
-        <v>3151</v>
+        <v>1244</v>
       </c>
       <c r="G28" s="4">
-        <v>4614</v>
+        <v>1386</v>
       </c>
       <c r="H28" s="4">
-        <v>5995</v>
+        <v>1654</v>
       </c>
       <c r="I28" s="4">
-        <v>4388</v>
+        <v>1234</v>
       </c>
       <c r="J28" s="4">
-        <v>4464</v>
+        <v>1497</v>
       </c>
       <c r="K28" s="4">
-        <v>2481</v>
+        <v>421</v>
       </c>
       <c r="L28" s="4">
-        <v>2093</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -2178,37 +2166,37 @@
         <v>38</v>
       </c>
       <c r="B29" s="7">
-        <v>10726</v>
+        <v>29717</v>
       </c>
       <c r="C29" s="4">
-        <v>966</v>
+        <v>2347</v>
       </c>
       <c r="D29" s="4">
-        <v>868</v>
+        <v>2113</v>
       </c>
       <c r="E29" s="4">
-        <v>1096</v>
+        <v>3800</v>
       </c>
       <c r="F29" s="4">
-        <v>1244</v>
+        <v>3855</v>
       </c>
       <c r="G29" s="4">
-        <v>1386</v>
+        <v>4469</v>
       </c>
       <c r="H29" s="4">
-        <v>1654</v>
+        <v>5735</v>
       </c>
       <c r="I29" s="4">
-        <v>1234</v>
+        <v>2538</v>
       </c>
       <c r="J29" s="4">
-        <v>1497</v>
+        <v>3062</v>
       </c>
       <c r="K29" s="4">
-        <v>421</v>
+        <v>1207</v>
       </c>
       <c r="L29" s="4">
-        <v>360</v>
+        <v>591</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -2216,37 +2204,37 @@
         <v>39</v>
       </c>
       <c r="B30" s="7">
-        <v>29717</v>
+        <v>21737</v>
       </c>
       <c r="C30" s="4">
-        <v>2347</v>
+        <v>1618</v>
       </c>
       <c r="D30" s="4">
-        <v>2113</v>
+        <v>1504</v>
       </c>
       <c r="E30" s="4">
-        <v>3800</v>
+        <v>2797</v>
       </c>
       <c r="F30" s="4">
-        <v>3855</v>
+        <v>2769</v>
       </c>
       <c r="G30" s="4">
-        <v>4469</v>
+        <v>3738</v>
       </c>
       <c r="H30" s="4">
-        <v>5735</v>
+        <v>3582</v>
       </c>
       <c r="I30" s="4">
-        <v>2538</v>
+        <v>2375</v>
       </c>
       <c r="J30" s="4">
-        <v>3062</v>
+        <v>2129</v>
       </c>
       <c r="K30" s="4">
-        <v>1207</v>
+        <v>730</v>
       </c>
       <c r="L30" s="4">
-        <v>591</v>
+        <v>495</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -2254,37 +2242,37 @@
         <v>40</v>
       </c>
       <c r="B31" s="7">
-        <v>21737</v>
+        <v>12037</v>
       </c>
       <c r="C31" s="4">
-        <v>1618</v>
+        <v>1027</v>
       </c>
       <c r="D31" s="4">
-        <v>1504</v>
+        <v>1185</v>
       </c>
       <c r="E31" s="4">
-        <v>2797</v>
+        <v>1803</v>
       </c>
       <c r="F31" s="4">
-        <v>2769</v>
+        <v>1269</v>
       </c>
       <c r="G31" s="4">
-        <v>3738</v>
+        <v>1506</v>
       </c>
       <c r="H31" s="4">
-        <v>3582</v>
+        <v>2064</v>
       </c>
       <c r="I31" s="4">
-        <v>2375</v>
+        <v>1272</v>
       </c>
       <c r="J31" s="4">
-        <v>2129</v>
+        <v>989</v>
       </c>
       <c r="K31" s="4">
-        <v>730</v>
+        <v>590</v>
       </c>
       <c r="L31" s="4">
-        <v>495</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -2292,37 +2280,37 @@
         <v>41</v>
       </c>
       <c r="B32" s="7">
-        <v>12037</v>
+        <v>6607</v>
       </c>
       <c r="C32" s="4">
-        <v>1027</v>
+        <v>591</v>
       </c>
       <c r="D32" s="4">
-        <v>1185</v>
+        <v>351</v>
       </c>
       <c r="E32" s="4">
-        <v>1803</v>
+        <v>884</v>
       </c>
       <c r="F32" s="4">
-        <v>1269</v>
+        <v>560</v>
       </c>
       <c r="G32" s="4">
-        <v>1506</v>
+        <v>774</v>
       </c>
       <c r="H32" s="4">
-        <v>2064</v>
+        <v>1279</v>
       </c>
       <c r="I32" s="4">
-        <v>1272</v>
+        <v>703</v>
       </c>
       <c r="J32" s="4">
-        <v>989</v>
+        <v>883</v>
       </c>
       <c r="K32" s="4">
-        <v>590</v>
+        <v>231</v>
       </c>
       <c r="L32" s="4">
-        <v>332</v>
+        <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -2330,37 +2318,37 @@
         <v>42</v>
       </c>
       <c r="B33" s="7">
-        <v>6607</v>
+        <v>28325</v>
       </c>
       <c r="C33" s="4">
-        <v>591</v>
+        <v>2375</v>
       </c>
       <c r="D33" s="4">
-        <v>351</v>
+        <v>2731</v>
       </c>
       <c r="E33" s="4">
-        <v>884</v>
+        <v>4719</v>
       </c>
       <c r="F33" s="4">
-        <v>560</v>
+        <v>4078</v>
       </c>
       <c r="G33" s="4">
-        <v>774</v>
+        <v>3705</v>
       </c>
       <c r="H33" s="4">
-        <v>1279</v>
+        <v>4138</v>
       </c>
       <c r="I33" s="4">
-        <v>703</v>
+        <v>2298</v>
       </c>
       <c r="J33" s="4">
-        <v>883</v>
+        <v>2468</v>
       </c>
       <c r="K33" s="4">
-        <v>231</v>
+        <v>1114</v>
       </c>
       <c r="L33" s="4">
-        <v>351</v>
+        <v>699</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -2368,37 +2356,37 @@
         <v>43</v>
       </c>
       <c r="B34" s="7">
-        <v>28325</v>
+        <v>13764</v>
       </c>
       <c r="C34" s="4">
-        <v>2375</v>
+        <v>2928</v>
       </c>
       <c r="D34" s="4">
-        <v>2731</v>
+        <v>1318</v>
       </c>
       <c r="E34" s="4">
-        <v>4719</v>
+        <v>1531</v>
       </c>
       <c r="F34" s="4">
-        <v>4078</v>
+        <v>1504</v>
       </c>
       <c r="G34" s="4">
-        <v>3705</v>
+        <v>1509</v>
       </c>
       <c r="H34" s="4">
-        <v>4138</v>
+        <v>1406</v>
       </c>
       <c r="I34" s="4">
-        <v>2298</v>
+        <v>1384</v>
       </c>
       <c r="J34" s="4">
-        <v>2468</v>
+        <v>1239</v>
       </c>
       <c r="K34" s="4">
-        <v>1114</v>
+        <v>523</v>
       </c>
       <c r="L34" s="4">
-        <v>699</v>
+        <v>422</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -2406,37 +2394,37 @@
         <v>44</v>
       </c>
       <c r="B35" s="7">
-        <v>13764</v>
+        <v>11215</v>
       </c>
       <c r="C35" s="4">
-        <v>2928</v>
+        <v>2455</v>
       </c>
       <c r="D35" s="4">
-        <v>1318</v>
+        <v>1172</v>
       </c>
       <c r="E35" s="4">
-        <v>1531</v>
+        <v>1668</v>
       </c>
       <c r="F35" s="4">
-        <v>1504</v>
+        <v>1424</v>
       </c>
       <c r="G35" s="4">
-        <v>1509</v>
+        <v>1462</v>
       </c>
       <c r="H35" s="4">
-        <v>1406</v>
+        <v>1422</v>
       </c>
       <c r="I35" s="4">
-        <v>1384</v>
+        <v>708</v>
       </c>
       <c r="J35" s="4">
-        <v>1239</v>
+        <v>559</v>
       </c>
       <c r="K35" s="4">
-        <v>523</v>
+        <v>284</v>
       </c>
       <c r="L35" s="4">
-        <v>422</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -2444,37 +2432,37 @@
         <v>45</v>
       </c>
       <c r="B36" s="7">
-        <v>11215</v>
+        <v>8026</v>
       </c>
       <c r="C36" s="4">
-        <v>2455</v>
+        <v>920</v>
       </c>
       <c r="D36" s="4">
-        <v>1172</v>
+        <v>831</v>
       </c>
       <c r="E36" s="4">
-        <v>1668</v>
+        <v>1081</v>
       </c>
       <c r="F36" s="4">
-        <v>1424</v>
+        <v>701</v>
       </c>
       <c r="G36" s="4">
-        <v>1462</v>
+        <v>1092</v>
       </c>
       <c r="H36" s="4">
-        <v>1422</v>
+        <v>1517</v>
       </c>
       <c r="I36" s="4">
-        <v>708</v>
+        <v>606</v>
       </c>
       <c r="J36" s="4">
-        <v>559</v>
+        <v>884</v>
       </c>
       <c r="K36" s="4">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="L36" s="4">
-        <v>61</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -2482,37 +2470,37 @@
         <v>46</v>
       </c>
       <c r="B37" s="7">
-        <v>8026</v>
+        <v>11068</v>
       </c>
       <c r="C37" s="4">
-        <v>920</v>
+        <v>1382</v>
       </c>
       <c r="D37" s="4">
-        <v>831</v>
+        <v>930</v>
       </c>
       <c r="E37" s="4">
-        <v>1081</v>
+        <v>1730</v>
       </c>
       <c r="F37" s="4">
-        <v>701</v>
+        <v>1452</v>
       </c>
       <c r="G37" s="4">
-        <v>1092</v>
+        <v>1521</v>
       </c>
       <c r="H37" s="4">
-        <v>1517</v>
+        <v>1552</v>
       </c>
       <c r="I37" s="4">
-        <v>606</v>
+        <v>938</v>
       </c>
       <c r="J37" s="4">
-        <v>884</v>
+        <v>956</v>
       </c>
       <c r="K37" s="4">
-        <v>196</v>
+        <v>364</v>
       </c>
       <c r="L37" s="4">
-        <v>198</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -2520,37 +2508,37 @@
         <v>47</v>
       </c>
       <c r="B38" s="7">
-        <v>11068</v>
+        <v>37482</v>
       </c>
       <c r="C38" s="4">
-        <v>1382</v>
+        <v>4345</v>
       </c>
       <c r="D38" s="4">
-        <v>930</v>
+        <v>2696</v>
       </c>
       <c r="E38" s="4">
-        <v>1730</v>
+        <v>3974</v>
       </c>
       <c r="F38" s="4">
-        <v>1452</v>
+        <v>4535</v>
       </c>
       <c r="G38" s="4">
-        <v>1521</v>
+        <v>5661</v>
       </c>
       <c r="H38" s="4">
-        <v>1552</v>
+        <v>6848</v>
       </c>
       <c r="I38" s="4">
-        <v>938</v>
+        <v>3792</v>
       </c>
       <c r="J38" s="4">
-        <v>956</v>
+        <v>3441</v>
       </c>
       <c r="K38" s="4">
-        <v>364</v>
+        <v>1276</v>
       </c>
       <c r="L38" s="4">
-        <v>243</v>
+        <v>914</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -2558,113 +2546,113 @@
         <v>48</v>
       </c>
       <c r="B39" s="7">
-        <v>37482</v>
+        <v>18430</v>
       </c>
       <c r="C39" s="4">
-        <v>4345</v>
+        <v>2601</v>
       </c>
       <c r="D39" s="4">
-        <v>2696</v>
+        <v>1319</v>
       </c>
       <c r="E39" s="4">
-        <v>3974</v>
+        <v>2024</v>
       </c>
       <c r="F39" s="4">
-        <v>4535</v>
+        <v>1806</v>
       </c>
       <c r="G39" s="4">
-        <v>5661</v>
+        <v>1883</v>
       </c>
       <c r="H39" s="4">
-        <v>6848</v>
+        <v>2887</v>
       </c>
       <c r="I39" s="4">
-        <v>3792</v>
+        <v>1835</v>
       </c>
       <c r="J39" s="4">
-        <v>3441</v>
+        <v>2148</v>
       </c>
       <c r="K39" s="4">
-        <v>1276</v>
+        <v>1009</v>
       </c>
       <c r="L39" s="4">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B40" s="7">
-        <v>18430</v>
+        <v>25070</v>
       </c>
       <c r="C40" s="4">
-        <v>2601</v>
+        <v>3036</v>
       </c>
       <c r="D40" s="4">
-        <v>1319</v>
+        <v>1701</v>
       </c>
       <c r="E40" s="4">
-        <v>2024</v>
+        <v>2598</v>
       </c>
       <c r="F40" s="4">
-        <v>1806</v>
+        <v>2596</v>
       </c>
       <c r="G40" s="4">
-        <v>1883</v>
+        <v>2590</v>
       </c>
       <c r="H40" s="4">
-        <v>2887</v>
+        <v>3762</v>
       </c>
       <c r="I40" s="4">
-        <v>1835</v>
+        <v>2920</v>
       </c>
       <c r="J40" s="4">
-        <v>2148</v>
+        <v>3727</v>
       </c>
       <c r="K40" s="4">
-        <v>1009</v>
+        <v>1153</v>
       </c>
       <c r="L40" s="4">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B41" s="7">
-        <v>25070</v>
+        <v>15435</v>
       </c>
       <c r="C41" s="4">
-        <v>3036</v>
+        <v>1379</v>
       </c>
       <c r="D41" s="4">
-        <v>1701</v>
+        <v>987</v>
       </c>
       <c r="E41" s="4">
-        <v>2598</v>
+        <v>1904</v>
       </c>
       <c r="F41" s="4">
-        <v>2596</v>
+        <v>1494</v>
       </c>
       <c r="G41" s="4">
-        <v>2590</v>
+        <v>2647</v>
       </c>
       <c r="H41" s="4">
-        <v>3762</v>
+        <v>2874</v>
       </c>
       <c r="I41" s="4">
-        <v>2920</v>
+        <v>1519</v>
       </c>
       <c r="J41" s="4">
-        <v>3727</v>
+        <v>1624</v>
       </c>
       <c r="K41" s="4">
-        <v>1153</v>
+        <v>495</v>
       </c>
       <c r="L41" s="4">
-        <v>987</v>
+        <v>512</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -2672,37 +2660,37 @@
         <v>51</v>
       </c>
       <c r="B42" s="7">
-        <v>15435</v>
+        <v>15022</v>
       </c>
       <c r="C42" s="4">
-        <v>1379</v>
+        <v>1156</v>
       </c>
       <c r="D42" s="4">
-        <v>987</v>
+        <v>1067</v>
       </c>
       <c r="E42" s="4">
-        <v>1904</v>
+        <v>1616</v>
       </c>
       <c r="F42" s="4">
-        <v>1494</v>
+        <v>1346</v>
       </c>
       <c r="G42" s="4">
-        <v>2647</v>
+        <v>1799</v>
       </c>
       <c r="H42" s="4">
-        <v>2874</v>
+        <v>2569</v>
       </c>
       <c r="I42" s="4">
-        <v>1519</v>
+        <v>1554</v>
       </c>
       <c r="J42" s="4">
-        <v>1624</v>
+        <v>2413</v>
       </c>
       <c r="K42" s="4">
-        <v>495</v>
+        <v>885</v>
       </c>
       <c r="L42" s="4">
-        <v>512</v>
+        <v>617</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -2710,37 +2698,37 @@
         <v>52</v>
       </c>
       <c r="B43" s="7">
-        <v>15022</v>
+        <v>11686</v>
       </c>
       <c r="C43" s="4">
-        <v>1156</v>
+        <v>2331</v>
       </c>
       <c r="D43" s="4">
-        <v>1067</v>
+        <v>1120</v>
       </c>
       <c r="E43" s="4">
-        <v>1616</v>
+        <v>1368</v>
       </c>
       <c r="F43" s="4">
-        <v>1346</v>
+        <v>1094</v>
       </c>
       <c r="G43" s="4">
-        <v>1799</v>
+        <v>1871</v>
       </c>
       <c r="H43" s="4">
-        <v>2569</v>
+        <v>1762</v>
       </c>
       <c r="I43" s="4">
-        <v>1554</v>
+        <v>781</v>
       </c>
       <c r="J43" s="4">
-        <v>2413</v>
+        <v>849</v>
       </c>
       <c r="K43" s="4">
-        <v>885</v>
+        <v>273</v>
       </c>
       <c r="L43" s="4">
-        <v>617</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -2748,37 +2736,37 @@
         <v>53</v>
       </c>
       <c r="B44" s="7">
-        <v>11686</v>
+        <v>20316</v>
       </c>
       <c r="C44" s="4">
-        <v>2331</v>
+        <v>5049</v>
       </c>
       <c r="D44" s="4">
-        <v>1120</v>
+        <v>2386</v>
       </c>
       <c r="E44" s="4">
-        <v>1368</v>
+        <v>2898</v>
       </c>
       <c r="F44" s="4">
-        <v>1094</v>
+        <v>2476</v>
       </c>
       <c r="G44" s="4">
-        <v>1871</v>
+        <v>2465</v>
       </c>
       <c r="H44" s="4">
-        <v>1762</v>
+        <v>2490</v>
       </c>
       <c r="I44" s="4">
-        <v>781</v>
+        <v>1177</v>
       </c>
       <c r="J44" s="4">
-        <v>849</v>
+        <v>1016</v>
       </c>
       <c r="K44" s="4">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="L44" s="4">
-        <v>237</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -2786,37 +2774,37 @@
         <v>54</v>
       </c>
       <c r="B45" s="7">
-        <v>20316</v>
+        <v>9841</v>
       </c>
       <c r="C45" s="4">
-        <v>5049</v>
+        <v>2335</v>
       </c>
       <c r="D45" s="4">
-        <v>2386</v>
+        <v>891</v>
       </c>
       <c r="E45" s="4">
-        <v>2898</v>
+        <v>1262</v>
       </c>
       <c r="F45" s="4">
-        <v>2476</v>
+        <v>924</v>
       </c>
       <c r="G45" s="4">
-        <v>2465</v>
+        <v>1333</v>
       </c>
       <c r="H45" s="4">
-        <v>2490</v>
+        <v>1324</v>
       </c>
       <c r="I45" s="4">
-        <v>1177</v>
+        <v>774</v>
       </c>
       <c r="J45" s="4">
-        <v>1016</v>
+        <v>825</v>
       </c>
       <c r="K45" s="4">
-        <v>283</v>
+        <v>114</v>
       </c>
       <c r="L45" s="4">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -2824,37 +2812,37 @@
         <v>55</v>
       </c>
       <c r="B46" s="7">
-        <v>9841</v>
+        <v>18217</v>
       </c>
       <c r="C46" s="4">
-        <v>2335</v>
+        <v>1456</v>
       </c>
       <c r="D46" s="4">
-        <v>891</v>
+        <v>751</v>
       </c>
       <c r="E46" s="4">
-        <v>1262</v>
+        <v>2088</v>
       </c>
       <c r="F46" s="4">
-        <v>924</v>
+        <v>1638</v>
       </c>
       <c r="G46" s="4">
-        <v>1333</v>
+        <v>2836</v>
       </c>
       <c r="H46" s="4">
-        <v>1324</v>
+        <v>3265</v>
       </c>
       <c r="I46" s="4">
-        <v>774</v>
+        <v>2316</v>
       </c>
       <c r="J46" s="4">
-        <v>825</v>
+        <v>2530</v>
       </c>
       <c r="K46" s="4">
-        <v>114</v>
+        <v>1014</v>
       </c>
       <c r="L46" s="4">
-        <v>59</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -2862,37 +2850,37 @@
         <v>56</v>
       </c>
       <c r="B47" s="7">
-        <v>18217</v>
+        <v>10222</v>
       </c>
       <c r="C47" s="4">
-        <v>1456</v>
+        <v>1152</v>
       </c>
       <c r="D47" s="4">
-        <v>751</v>
+        <v>724</v>
       </c>
       <c r="E47" s="4">
-        <v>2088</v>
+        <v>1448</v>
       </c>
       <c r="F47" s="4">
-        <v>1638</v>
+        <v>1324</v>
       </c>
       <c r="G47" s="4">
-        <v>2836</v>
+        <v>1239</v>
       </c>
       <c r="H47" s="4">
-        <v>3265</v>
+        <v>2125</v>
       </c>
       <c r="I47" s="4">
-        <v>2316</v>
+        <v>910</v>
       </c>
       <c r="J47" s="4">
-        <v>2530</v>
+        <v>863</v>
       </c>
       <c r="K47" s="4">
-        <v>1014</v>
+        <v>262</v>
       </c>
       <c r="L47" s="4">
-        <v>323</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -2900,113 +2888,113 @@
         <v>57</v>
       </c>
       <c r="B48" s="7">
-        <v>10222</v>
+        <v>20055</v>
       </c>
       <c r="C48" s="4">
-        <v>1152</v>
+        <v>2213</v>
       </c>
       <c r="D48" s="4">
-        <v>724</v>
+        <v>1238</v>
       </c>
       <c r="E48" s="4">
-        <v>1448</v>
+        <v>2096</v>
       </c>
       <c r="F48" s="4">
-        <v>1324</v>
+        <v>2253</v>
       </c>
       <c r="G48" s="4">
-        <v>1239</v>
+        <v>3024</v>
       </c>
       <c r="H48" s="4">
-        <v>2125</v>
+        <v>3883</v>
       </c>
       <c r="I48" s="4">
-        <v>910</v>
+        <v>2288</v>
       </c>
       <c r="J48" s="4">
-        <v>863</v>
+        <v>2079</v>
       </c>
       <c r="K48" s="4">
-        <v>262</v>
+        <v>595</v>
       </c>
       <c r="L48" s="4">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B49" s="7">
-        <v>20055</v>
+        <v>16432</v>
       </c>
       <c r="C49" s="4">
-        <v>2213</v>
+        <v>641</v>
       </c>
       <c r="D49" s="4">
-        <v>1238</v>
+        <v>445</v>
       </c>
       <c r="E49" s="4">
-        <v>2096</v>
+        <v>1286</v>
       </c>
       <c r="F49" s="4">
-        <v>2253</v>
+        <v>1207</v>
       </c>
       <c r="G49" s="4">
-        <v>3024</v>
+        <v>1927</v>
       </c>
       <c r="H49" s="4">
-        <v>3883</v>
+        <v>2438</v>
       </c>
       <c r="I49" s="4">
-        <v>2288</v>
+        <v>2378</v>
       </c>
       <c r="J49" s="4">
-        <v>2079</v>
+        <v>3580</v>
       </c>
       <c r="K49" s="4">
-        <v>595</v>
+        <v>1388</v>
       </c>
       <c r="L49" s="4">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B50" s="7">
-        <v>16432</v>
+        <v>27669</v>
       </c>
       <c r="C50" s="4">
-        <v>641</v>
+        <v>2516</v>
       </c>
       <c r="D50" s="4">
-        <v>445</v>
+        <v>973</v>
       </c>
       <c r="E50" s="4">
-        <v>1286</v>
+        <v>2305</v>
       </c>
       <c r="F50" s="4">
-        <v>1207</v>
+        <v>2412</v>
       </c>
       <c r="G50" s="4">
-        <v>1927</v>
+        <v>3393</v>
       </c>
       <c r="H50" s="4">
-        <v>2438</v>
+        <v>5073</v>
       </c>
       <c r="I50" s="4">
-        <v>2378</v>
+        <v>4108</v>
       </c>
       <c r="J50" s="4">
-        <v>3580</v>
+        <v>4438</v>
       </c>
       <c r="K50" s="4">
-        <v>1388</v>
+        <v>1661</v>
       </c>
       <c r="L50" s="4">
-        <v>1142</v>
+        <v>790</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -3014,37 +3002,37 @@
         <v>60</v>
       </c>
       <c r="B51" s="7">
-        <v>27669</v>
+        <v>23279</v>
       </c>
       <c r="C51" s="4">
-        <v>2516</v>
+        <v>1501</v>
       </c>
       <c r="D51" s="4">
-        <v>973</v>
+        <v>725</v>
       </c>
       <c r="E51" s="4">
-        <v>2305</v>
+        <v>2179</v>
       </c>
       <c r="F51" s="4">
-        <v>2412</v>
+        <v>2138</v>
       </c>
       <c r="G51" s="4">
-        <v>3393</v>
+        <v>3072</v>
       </c>
       <c r="H51" s="4">
-        <v>5073</v>
+        <v>4390</v>
       </c>
       <c r="I51" s="4">
-        <v>4108</v>
+        <v>3316</v>
       </c>
       <c r="J51" s="4">
-        <v>4438</v>
+        <v>3631</v>
       </c>
       <c r="K51" s="4">
-        <v>1661</v>
+        <v>1588</v>
       </c>
       <c r="L51" s="4">
-        <v>790</v>
+        <v>739</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -3052,37 +3040,37 @@
         <v>61</v>
       </c>
       <c r="B52" s="7">
-        <v>23279</v>
+        <v>8877</v>
       </c>
       <c r="C52" s="4">
-        <v>1501</v>
+        <v>2360</v>
       </c>
       <c r="D52" s="4">
-        <v>725</v>
+        <v>1074</v>
       </c>
       <c r="E52" s="4">
-        <v>2179</v>
+        <v>1577</v>
       </c>
       <c r="F52" s="4">
-        <v>2138</v>
+        <v>1002</v>
       </c>
       <c r="G52" s="4">
-        <v>3072</v>
+        <v>1214</v>
       </c>
       <c r="H52" s="4">
-        <v>4390</v>
+        <v>1022</v>
       </c>
       <c r="I52" s="4">
-        <v>3316</v>
+        <v>359</v>
       </c>
       <c r="J52" s="4">
-        <v>3631</v>
+        <v>245</v>
       </c>
       <c r="K52" s="4">
-        <v>1588</v>
+        <v>3</v>
       </c>
       <c r="L52" s="4">
-        <v>739</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -3090,37 +3078,37 @@
         <v>62</v>
       </c>
       <c r="B53" s="7">
-        <v>8877</v>
+        <v>8318</v>
       </c>
       <c r="C53" s="4">
-        <v>2360</v>
+        <v>2227</v>
       </c>
       <c r="D53" s="4">
-        <v>1074</v>
+        <v>991</v>
       </c>
       <c r="E53" s="4">
-        <v>1577</v>
+        <v>1353</v>
       </c>
       <c r="F53" s="4">
-        <v>1002</v>
+        <v>1114</v>
       </c>
       <c r="G53" s="4">
-        <v>1214</v>
+        <v>894</v>
       </c>
       <c r="H53" s="4">
-        <v>1022</v>
+        <v>872</v>
       </c>
       <c r="I53" s="4">
-        <v>359</v>
+        <v>430</v>
       </c>
       <c r="J53" s="4">
-        <v>245</v>
+        <v>318</v>
       </c>
       <c r="K53" s="4">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="L53" s="4">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -3128,37 +3116,37 @@
         <v>63</v>
       </c>
       <c r="B54" s="7">
-        <v>8318</v>
+        <v>12776</v>
       </c>
       <c r="C54" s="4">
-        <v>2227</v>
+        <v>2998</v>
       </c>
       <c r="D54" s="4">
-        <v>991</v>
+        <v>1670</v>
       </c>
       <c r="E54" s="4">
-        <v>1353</v>
+        <v>2167</v>
       </c>
       <c r="F54" s="4">
-        <v>1114</v>
+        <v>1695</v>
       </c>
       <c r="G54" s="4">
-        <v>894</v>
+        <v>1758</v>
       </c>
       <c r="H54" s="4">
-        <v>872</v>
+        <v>1377</v>
       </c>
       <c r="I54" s="4">
-        <v>430</v>
+        <v>562</v>
       </c>
       <c r="J54" s="4">
-        <v>318</v>
+        <v>396</v>
       </c>
       <c r="K54" s="4">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="L54" s="4">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -3166,37 +3154,37 @@
         <v>64</v>
       </c>
       <c r="B55" s="7">
-        <v>12776</v>
+        <v>17497</v>
       </c>
       <c r="C55" s="4">
-        <v>2998</v>
+        <v>4511</v>
       </c>
       <c r="D55" s="4">
-        <v>1670</v>
+        <v>2591</v>
       </c>
       <c r="E55" s="4">
-        <v>2167</v>
+        <v>3252</v>
       </c>
       <c r="F55" s="4">
-        <v>1695</v>
+        <v>2109</v>
       </c>
       <c r="G55" s="4">
-        <v>1758</v>
+        <v>2011</v>
       </c>
       <c r="H55" s="4">
-        <v>1377</v>
+        <v>1567</v>
       </c>
       <c r="I55" s="4">
-        <v>562</v>
+        <v>779</v>
       </c>
       <c r="J55" s="4">
-        <v>396</v>
+        <v>487</v>
       </c>
       <c r="K55" s="4">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="L55" s="4">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -3204,37 +3192,37 @@
         <v>65</v>
       </c>
       <c r="B56" s="7">
-        <v>17497</v>
+        <v>9847</v>
       </c>
       <c r="C56" s="4">
-        <v>4511</v>
+        <v>2584</v>
       </c>
       <c r="D56" s="4">
-        <v>2591</v>
+        <v>1455</v>
       </c>
       <c r="E56" s="4">
-        <v>3252</v>
+        <v>1417</v>
       </c>
       <c r="F56" s="4">
-        <v>2109</v>
+        <v>1284</v>
       </c>
       <c r="G56" s="4">
-        <v>2011</v>
+        <v>1282</v>
       </c>
       <c r="H56" s="4">
-        <v>1567</v>
+        <v>1028</v>
       </c>
       <c r="I56" s="4">
-        <v>779</v>
+        <v>457</v>
       </c>
       <c r="J56" s="4">
-        <v>487</v>
+        <v>292</v>
       </c>
       <c r="K56" s="4">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="L56" s="4">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -3242,37 +3230,37 @@
         <v>66</v>
       </c>
       <c r="B57" s="7">
-        <v>9847</v>
+        <v>8319</v>
       </c>
       <c r="C57" s="4">
-        <v>2584</v>
+        <v>2201</v>
       </c>
       <c r="D57" s="4">
-        <v>1455</v>
+        <v>1208</v>
       </c>
       <c r="E57" s="4">
-        <v>1417</v>
+        <v>1374</v>
       </c>
       <c r="F57" s="4">
-        <v>1284</v>
+        <v>1248</v>
       </c>
       <c r="G57" s="4">
-        <v>1282</v>
+        <v>953</v>
       </c>
       <c r="H57" s="4">
-        <v>1028</v>
+        <v>864</v>
       </c>
       <c r="I57" s="4">
-        <v>457</v>
+        <v>240</v>
       </c>
       <c r="J57" s="4">
-        <v>292</v>
+        <v>145</v>
       </c>
       <c r="K57" s="4">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="L57" s="4">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -3280,37 +3268,37 @@
         <v>67</v>
       </c>
       <c r="B58" s="7">
-        <v>8319</v>
+        <v>14245</v>
       </c>
       <c r="C58" s="4">
-        <v>2201</v>
+        <v>3827</v>
       </c>
       <c r="D58" s="4">
-        <v>1208</v>
+        <v>2043</v>
       </c>
       <c r="E58" s="4">
-        <v>1374</v>
+        <v>2361</v>
       </c>
       <c r="F58" s="4">
-        <v>1248</v>
+        <v>1586</v>
       </c>
       <c r="G58" s="4">
-        <v>953</v>
+        <v>1619</v>
       </c>
       <c r="H58" s="4">
-        <v>864</v>
+        <v>1381</v>
       </c>
       <c r="I58" s="4">
-        <v>240</v>
+        <v>807</v>
       </c>
       <c r="J58" s="4">
-        <v>145</v>
+        <v>476</v>
       </c>
       <c r="K58" s="4">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="L58" s="4">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -3318,37 +3306,37 @@
         <v>68</v>
       </c>
       <c r="B59" s="7">
-        <v>14245</v>
+        <v>12475</v>
       </c>
       <c r="C59" s="4">
-        <v>3827</v>
+        <v>2892</v>
       </c>
       <c r="D59" s="4">
-        <v>2043</v>
+        <v>1121</v>
       </c>
       <c r="E59" s="4">
-        <v>2361</v>
+        <v>2371</v>
       </c>
       <c r="F59" s="4">
-        <v>1586</v>
+        <v>1344</v>
       </c>
       <c r="G59" s="4">
-        <v>1619</v>
+        <v>2032</v>
       </c>
       <c r="H59" s="4">
-        <v>1381</v>
+        <v>1313</v>
       </c>
       <c r="I59" s="4">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="J59" s="4">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="K59" s="4">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="L59" s="4">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -3356,37 +3344,37 @@
         <v>69</v>
       </c>
       <c r="B60" s="7">
-        <v>12475</v>
+        <v>6912</v>
       </c>
       <c r="C60" s="4">
-        <v>2892</v>
+        <v>1758</v>
       </c>
       <c r="D60" s="4">
-        <v>1121</v>
+        <v>759</v>
       </c>
       <c r="E60" s="4">
-        <v>2371</v>
+        <v>1166</v>
       </c>
       <c r="F60" s="4">
-        <v>1344</v>
+        <v>916</v>
       </c>
       <c r="G60" s="4">
-        <v>2032</v>
+        <v>822</v>
       </c>
       <c r="H60" s="4">
-        <v>1313</v>
+        <v>907</v>
       </c>
       <c r="I60" s="4">
-        <v>802</v>
+        <v>338</v>
       </c>
       <c r="J60" s="4">
-        <v>463</v>
+        <v>179</v>
       </c>
       <c r="K60" s="4">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="L60" s="4">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -3394,37 +3382,37 @@
         <v>70</v>
       </c>
       <c r="B61" s="7">
-        <v>6912</v>
+        <v>21343</v>
       </c>
       <c r="C61" s="4">
-        <v>1758</v>
+        <v>4268</v>
       </c>
       <c r="D61" s="4">
-        <v>759</v>
+        <v>2378</v>
       </c>
       <c r="E61" s="4">
-        <v>1166</v>
+        <v>3217</v>
       </c>
       <c r="F61" s="4">
-        <v>916</v>
+        <v>2211</v>
       </c>
       <c r="G61" s="4">
-        <v>822</v>
+        <v>3251</v>
       </c>
       <c r="H61" s="4">
-        <v>907</v>
+        <v>3318</v>
       </c>
       <c r="I61" s="4">
-        <v>338</v>
+        <v>1323</v>
       </c>
       <c r="J61" s="4">
-        <v>179</v>
+        <v>998</v>
       </c>
       <c r="K61" s="4">
-        <v>47</v>
+        <v>306</v>
       </c>
       <c r="L61" s="4">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -3432,37 +3420,37 @@
         <v>71</v>
       </c>
       <c r="B62" s="7">
-        <v>21343</v>
+        <v>12711</v>
       </c>
       <c r="C62" s="4">
-        <v>4268</v>
+        <v>2480</v>
       </c>
       <c r="D62" s="4">
-        <v>2378</v>
+        <v>1447</v>
       </c>
       <c r="E62" s="4">
-        <v>3217</v>
+        <v>2644</v>
       </c>
       <c r="F62" s="4">
-        <v>2211</v>
+        <v>1594</v>
       </c>
       <c r="G62" s="4">
-        <v>3251</v>
+        <v>1665</v>
       </c>
       <c r="H62" s="4">
-        <v>3318</v>
+        <v>1459</v>
       </c>
       <c r="I62" s="4">
-        <v>1323</v>
+        <v>960</v>
       </c>
       <c r="J62" s="4">
-        <v>998</v>
+        <v>407</v>
       </c>
       <c r="K62" s="4">
-        <v>306</v>
+        <v>21</v>
       </c>
       <c r="L62" s="4">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -3470,37 +3458,37 @@
         <v>72</v>
       </c>
       <c r="B63" s="7">
-        <v>12711</v>
+        <v>12795</v>
       </c>
       <c r="C63" s="4">
-        <v>2480</v>
+        <v>2027</v>
       </c>
       <c r="D63" s="4">
-        <v>1447</v>
+        <v>1504</v>
       </c>
       <c r="E63" s="4">
-        <v>2644</v>
+        <v>1923</v>
       </c>
       <c r="F63" s="4">
-        <v>1594</v>
+        <v>1942</v>
       </c>
       <c r="G63" s="4">
-        <v>1665</v>
+        <v>2088</v>
       </c>
       <c r="H63" s="4">
-        <v>1459</v>
+        <v>2057</v>
       </c>
       <c r="I63" s="4">
-        <v>960</v>
+        <v>733</v>
       </c>
       <c r="J63" s="4">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="K63" s="4">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="L63" s="4">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -3508,37 +3496,37 @@
         <v>73</v>
       </c>
       <c r="B64" s="7">
-        <v>12795</v>
+        <v>17631</v>
       </c>
       <c r="C64" s="4">
-        <v>2027</v>
+        <v>3451</v>
       </c>
       <c r="D64" s="4">
-        <v>1504</v>
+        <v>1954</v>
       </c>
       <c r="E64" s="4">
-        <v>1923</v>
+        <v>3189</v>
       </c>
       <c r="F64" s="4">
-        <v>1942</v>
+        <v>2171</v>
       </c>
       <c r="G64" s="4">
-        <v>2088</v>
+        <v>2737</v>
       </c>
       <c r="H64" s="4">
-        <v>2057</v>
+        <v>2288</v>
       </c>
       <c r="I64" s="4">
-        <v>733</v>
+        <v>1087</v>
       </c>
       <c r="J64" s="4">
-        <v>429</v>
+        <v>487</v>
       </c>
       <c r="K64" s="4">
-        <v>85</v>
+        <v>225</v>
       </c>
       <c r="L64" s="4">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -3546,37 +3534,37 @@
         <v>74</v>
       </c>
       <c r="B65" s="7">
-        <v>17631</v>
+        <v>8338</v>
       </c>
       <c r="C65" s="4">
-        <v>3451</v>
+        <v>1812</v>
       </c>
       <c r="D65" s="4">
-        <v>1954</v>
+        <v>1115</v>
       </c>
       <c r="E65" s="4">
-        <v>3189</v>
+        <v>1510</v>
       </c>
       <c r="F65" s="4">
-        <v>2171</v>
+        <v>920</v>
       </c>
       <c r="G65" s="4">
-        <v>2737</v>
+        <v>1182</v>
       </c>
       <c r="H65" s="4">
-        <v>2288</v>
+        <v>918</v>
       </c>
       <c r="I65" s="4">
-        <v>1087</v>
+        <v>572</v>
       </c>
       <c r="J65" s="4">
-        <v>487</v>
+        <v>257</v>
       </c>
       <c r="K65" s="4">
-        <v>225</v>
+        <v>30</v>
       </c>
       <c r="L65" s="4">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -3584,37 +3572,37 @@
         <v>75</v>
       </c>
       <c r="B66" s="7">
-        <v>8338</v>
+        <v>16528</v>
       </c>
       <c r="C66" s="4">
-        <v>1812</v>
+        <v>3064</v>
       </c>
       <c r="D66" s="4">
-        <v>1115</v>
+        <v>1766</v>
       </c>
       <c r="E66" s="4">
-        <v>1510</v>
+        <v>2891</v>
       </c>
       <c r="F66" s="4">
-        <v>920</v>
+        <v>2072</v>
       </c>
       <c r="G66" s="4">
-        <v>1182</v>
+        <v>2485</v>
       </c>
       <c r="H66" s="4">
-        <v>918</v>
+        <v>2386</v>
       </c>
       <c r="I66" s="4">
-        <v>572</v>
+        <v>1130</v>
       </c>
       <c r="J66" s="4">
-        <v>257</v>
+        <v>490</v>
       </c>
       <c r="K66" s="4">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="L66" s="4">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -3622,37 +3610,37 @@
         <v>76</v>
       </c>
       <c r="B67" s="7">
-        <v>16528</v>
+        <v>18253</v>
       </c>
       <c r="C67" s="4">
-        <v>3064</v>
+        <v>3248</v>
       </c>
       <c r="D67" s="4">
-        <v>1766</v>
+        <v>1887</v>
       </c>
       <c r="E67" s="4">
-        <v>2891</v>
+        <v>3326</v>
       </c>
       <c r="F67" s="4">
-        <v>2072</v>
+        <v>1824</v>
       </c>
       <c r="G67" s="4">
-        <v>2485</v>
+        <v>2450</v>
       </c>
       <c r="H67" s="4">
-        <v>2386</v>
+        <v>2592</v>
       </c>
       <c r="I67" s="4">
-        <v>1130</v>
+        <v>1434</v>
       </c>
       <c r="J67" s="4">
-        <v>490</v>
+        <v>1164</v>
       </c>
       <c r="K67" s="4">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="L67" s="4">
-        <v>88</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -3660,37 +3648,37 @@
         <v>77</v>
       </c>
       <c r="B68" s="7">
-        <v>18253</v>
+        <v>10599</v>
       </c>
       <c r="C68" s="4">
-        <v>3248</v>
+        <v>1894</v>
       </c>
       <c r="D68" s="4">
-        <v>1887</v>
+        <v>1032</v>
       </c>
       <c r="E68" s="4">
-        <v>3326</v>
+        <v>1635</v>
       </c>
       <c r="F68" s="4">
-        <v>1824</v>
+        <v>1496</v>
       </c>
       <c r="G68" s="4">
-        <v>2450</v>
+        <v>1505</v>
       </c>
       <c r="H68" s="4">
-        <v>2592</v>
+        <v>1499</v>
       </c>
       <c r="I68" s="4">
-        <v>1434</v>
+        <v>778</v>
       </c>
       <c r="J68" s="4">
-        <v>1164</v>
+        <v>528</v>
       </c>
       <c r="K68" s="4">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="L68" s="4">
-        <v>166</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -3698,37 +3686,37 @@
         <v>78</v>
       </c>
       <c r="B69" s="7">
-        <v>10599</v>
+        <v>14192</v>
       </c>
       <c r="C69" s="4">
-        <v>1894</v>
+        <v>2012</v>
       </c>
       <c r="D69" s="4">
-        <v>1032</v>
+        <v>1326</v>
       </c>
       <c r="E69" s="4">
-        <v>1635</v>
+        <v>1998</v>
       </c>
       <c r="F69" s="4">
-        <v>1496</v>
+        <v>1663</v>
       </c>
       <c r="G69" s="4">
-        <v>1505</v>
+        <v>1760</v>
       </c>
       <c r="H69" s="4">
-        <v>1499</v>
+        <v>2891</v>
       </c>
       <c r="I69" s="4">
-        <v>778</v>
+        <v>1412</v>
       </c>
       <c r="J69" s="4">
-        <v>528</v>
+        <v>811</v>
       </c>
       <c r="K69" s="4">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="L69" s="4">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -3736,37 +3724,37 @@
         <v>79</v>
       </c>
       <c r="B70" s="7">
-        <v>14192</v>
+        <v>10909</v>
       </c>
       <c r="C70" s="4">
-        <v>2012</v>
+        <v>624</v>
       </c>
       <c r="D70" s="4">
-        <v>1326</v>
+        <v>290</v>
       </c>
       <c r="E70" s="4">
-        <v>1998</v>
+        <v>859</v>
       </c>
       <c r="F70" s="4">
-        <v>1663</v>
+        <v>592</v>
       </c>
       <c r="G70" s="4">
-        <v>1760</v>
+        <v>1104</v>
       </c>
       <c r="H70" s="4">
-        <v>2891</v>
+        <v>1935</v>
       </c>
       <c r="I70" s="4">
-        <v>1412</v>
+        <v>1379</v>
       </c>
       <c r="J70" s="4">
-        <v>811</v>
+        <v>1962</v>
       </c>
       <c r="K70" s="4">
-        <v>215</v>
+        <v>809</v>
       </c>
       <c r="L70" s="4">
-        <v>104</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -3774,37 +3762,37 @@
         <v>80</v>
       </c>
       <c r="B71" s="7">
-        <v>10909</v>
+        <v>17347</v>
       </c>
       <c r="C71" s="4">
-        <v>624</v>
+        <v>2084</v>
       </c>
       <c r="D71" s="4">
-        <v>290</v>
+        <v>1313</v>
       </c>
       <c r="E71" s="4">
-        <v>859</v>
+        <v>2099</v>
       </c>
       <c r="F71" s="4">
-        <v>592</v>
+        <v>2289</v>
       </c>
       <c r="G71" s="4">
-        <v>1104</v>
+        <v>2560</v>
       </c>
       <c r="H71" s="4">
-        <v>1935</v>
+        <v>3497</v>
       </c>
       <c r="I71" s="4">
-        <v>1379</v>
+        <v>1471</v>
       </c>
       <c r="J71" s="4">
-        <v>1962</v>
+        <v>1408</v>
       </c>
       <c r="K71" s="4">
-        <v>809</v>
+        <v>500</v>
       </c>
       <c r="L71" s="4">
-        <v>1355</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3812,37 +3800,37 @@
         <v>81</v>
       </c>
       <c r="B72" s="7">
-        <v>17347</v>
+        <v>12741</v>
       </c>
       <c r="C72" s="4">
-        <v>2084</v>
+        <v>841</v>
       </c>
       <c r="D72" s="4">
-        <v>1313</v>
+        <v>503</v>
       </c>
       <c r="E72" s="4">
-        <v>2099</v>
+        <v>1131</v>
       </c>
       <c r="F72" s="4">
-        <v>2289</v>
+        <v>925</v>
       </c>
       <c r="G72" s="4">
-        <v>2560</v>
+        <v>1333</v>
       </c>
       <c r="H72" s="4">
-        <v>3497</v>
+        <v>2488</v>
       </c>
       <c r="I72" s="4">
-        <v>1471</v>
+        <v>1590</v>
       </c>
       <c r="J72" s="4">
-        <v>1408</v>
+        <v>1921</v>
       </c>
       <c r="K72" s="4">
-        <v>500</v>
+        <v>973</v>
       </c>
       <c r="L72" s="4">
-        <v>126</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -3850,113 +3838,113 @@
         <v>82</v>
       </c>
       <c r="B73" s="7">
-        <v>12741</v>
+        <v>11448</v>
       </c>
       <c r="C73" s="4">
-        <v>841</v>
+        <v>2039</v>
       </c>
       <c r="D73" s="4">
-        <v>503</v>
+        <v>1123</v>
       </c>
       <c r="E73" s="4">
-        <v>1131</v>
+        <v>1796</v>
       </c>
       <c r="F73" s="4">
-        <v>925</v>
+        <v>1282</v>
       </c>
       <c r="G73" s="4">
-        <v>1333</v>
+        <v>1390</v>
       </c>
       <c r="H73" s="4">
-        <v>2488</v>
+        <v>1796</v>
       </c>
       <c r="I73" s="4">
-        <v>1590</v>
+        <v>984</v>
       </c>
       <c r="J73" s="4">
-        <v>1921</v>
+        <v>784</v>
       </c>
       <c r="K73" s="4">
-        <v>973</v>
+        <v>136</v>
       </c>
       <c r="L73" s="4">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B74" s="7">
-        <v>11448</v>
+        <v>18657</v>
       </c>
       <c r="C74" s="4">
-        <v>2039</v>
+        <v>2510</v>
       </c>
       <c r="D74" s="4">
-        <v>1123</v>
+        <v>1575</v>
       </c>
       <c r="E74" s="4">
-        <v>1796</v>
+        <v>2763</v>
       </c>
       <c r="F74" s="4">
-        <v>1282</v>
+        <v>2237</v>
       </c>
       <c r="G74" s="4">
-        <v>1390</v>
+        <v>2362</v>
       </c>
       <c r="H74" s="4">
-        <v>1796</v>
+        <v>2746</v>
       </c>
       <c r="I74" s="4">
-        <v>984</v>
+        <v>1788</v>
       </c>
       <c r="J74" s="4">
-        <v>784</v>
+        <v>1819</v>
       </c>
       <c r="K74" s="4">
-        <v>136</v>
+        <v>584</v>
       </c>
       <c r="L74" s="4">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B75" s="7">
-        <v>18657</v>
+        <v>12590</v>
       </c>
       <c r="C75" s="4">
-        <v>2510</v>
+        <v>1096</v>
       </c>
       <c r="D75" s="4">
-        <v>1575</v>
+        <v>559</v>
       </c>
       <c r="E75" s="4">
-        <v>2763</v>
+        <v>1364</v>
       </c>
       <c r="F75" s="4">
-        <v>2237</v>
+        <v>1297</v>
       </c>
       <c r="G75" s="4">
-        <v>2362</v>
+        <v>2142</v>
       </c>
       <c r="H75" s="4">
-        <v>2746</v>
+        <v>3055</v>
       </c>
       <c r="I75" s="4">
-        <v>1788</v>
+        <v>1693</v>
       </c>
       <c r="J75" s="4">
-        <v>1819</v>
+        <v>1062</v>
       </c>
       <c r="K75" s="4">
-        <v>584</v>
+        <v>260</v>
       </c>
       <c r="L75" s="4">
-        <v>273</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -3964,37 +3952,37 @@
         <v>85</v>
       </c>
       <c r="B76" s="7">
-        <v>12590</v>
+        <v>11247</v>
       </c>
       <c r="C76" s="4">
-        <v>1096</v>
+        <v>2075</v>
       </c>
       <c r="D76" s="4">
-        <v>559</v>
+        <v>1001</v>
       </c>
       <c r="E76" s="4">
-        <v>1364</v>
+        <v>1714</v>
       </c>
       <c r="F76" s="4">
-        <v>1297</v>
+        <v>1314</v>
       </c>
       <c r="G76" s="4">
-        <v>2142</v>
+        <v>1724</v>
       </c>
       <c r="H76" s="4">
-        <v>3055</v>
+        <v>1697</v>
       </c>
       <c r="I76" s="4">
-        <v>1693</v>
+        <v>749</v>
       </c>
       <c r="J76" s="4">
-        <v>1062</v>
+        <v>567</v>
       </c>
       <c r="K76" s="4">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="L76" s="4">
-        <v>62</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -4002,37 +3990,37 @@
         <v>86</v>
       </c>
       <c r="B77" s="7">
-        <v>11247</v>
+        <v>8788</v>
       </c>
       <c r="C77" s="4">
-        <v>2075</v>
+        <v>948</v>
       </c>
       <c r="D77" s="4">
-        <v>1001</v>
+        <v>653</v>
       </c>
       <c r="E77" s="4">
-        <v>1714</v>
+        <v>1262</v>
       </c>
       <c r="F77" s="4">
-        <v>1314</v>
+        <v>782</v>
       </c>
       <c r="G77" s="4">
-        <v>1724</v>
+        <v>1407</v>
       </c>
       <c r="H77" s="4">
-        <v>1697</v>
+        <v>1602</v>
       </c>
       <c r="I77" s="4">
-        <v>749</v>
+        <v>955</v>
       </c>
       <c r="J77" s="4">
-        <v>567</v>
+        <v>867</v>
       </c>
       <c r="K77" s="4">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="L77" s="4">
-        <v>129</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -4040,37 +4028,37 @@
         <v>87</v>
       </c>
       <c r="B78" s="7">
-        <v>8788</v>
+        <v>11247</v>
       </c>
       <c r="C78" s="4">
-        <v>948</v>
+        <v>961</v>
       </c>
       <c r="D78" s="4">
-        <v>653</v>
+        <v>707</v>
       </c>
       <c r="E78" s="4">
-        <v>1262</v>
+        <v>1031</v>
       </c>
       <c r="F78" s="4">
-        <v>782</v>
+        <v>1084</v>
       </c>
       <c r="G78" s="4">
-        <v>1407</v>
+        <v>1412</v>
       </c>
       <c r="H78" s="4">
-        <v>1602</v>
+        <v>1909</v>
       </c>
       <c r="I78" s="4">
-        <v>955</v>
+        <v>1312</v>
       </c>
       <c r="J78" s="4">
-        <v>867</v>
+        <v>1864</v>
       </c>
       <c r="K78" s="4">
-        <v>232</v>
+        <v>618</v>
       </c>
       <c r="L78" s="4">
-        <v>80</v>
+        <v>349</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -4078,37 +4066,37 @@
         <v>88</v>
       </c>
       <c r="B79" s="7">
-        <v>11247</v>
+        <v>18258</v>
       </c>
       <c r="C79" s="4">
-        <v>961</v>
+        <v>1485</v>
       </c>
       <c r="D79" s="4">
-        <v>707</v>
+        <v>972</v>
       </c>
       <c r="E79" s="4">
-        <v>1031</v>
+        <v>2599</v>
       </c>
       <c r="F79" s="4">
-        <v>1084</v>
+        <v>2080</v>
       </c>
       <c r="G79" s="4">
-        <v>1412</v>
+        <v>2641</v>
       </c>
       <c r="H79" s="4">
-        <v>1909</v>
+        <v>3193</v>
       </c>
       <c r="I79" s="4">
-        <v>1312</v>
+        <v>2341</v>
       </c>
       <c r="J79" s="4">
-        <v>1864</v>
+        <v>1947</v>
       </c>
       <c r="K79" s="4">
-        <v>618</v>
+        <v>748</v>
       </c>
       <c r="L79" s="4">
-        <v>349</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -4116,37 +4104,37 @@
         <v>89</v>
       </c>
       <c r="B80" s="7">
-        <v>18258</v>
+        <v>16655</v>
       </c>
       <c r="C80" s="4">
-        <v>1485</v>
+        <v>1423</v>
       </c>
       <c r="D80" s="4">
-        <v>972</v>
+        <v>791</v>
       </c>
       <c r="E80" s="4">
-        <v>2599</v>
+        <v>1586</v>
       </c>
       <c r="F80" s="4">
-        <v>2080</v>
+        <v>1197</v>
       </c>
       <c r="G80" s="4">
-        <v>2641</v>
+        <v>1867</v>
       </c>
       <c r="H80" s="4">
-        <v>3193</v>
+        <v>2702</v>
       </c>
       <c r="I80" s="4">
-        <v>2341</v>
+        <v>2463</v>
       </c>
       <c r="J80" s="4">
-        <v>1947</v>
+        <v>2830</v>
       </c>
       <c r="K80" s="4">
-        <v>748</v>
+        <v>1124</v>
       </c>
       <c r="L80" s="4">
-        <v>252</v>
+        <v>672</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -4154,37 +4142,37 @@
         <v>90</v>
       </c>
       <c r="B81" s="7">
-        <v>16655</v>
+        <v>13479</v>
       </c>
       <c r="C81" s="4">
-        <v>1423</v>
+        <v>2564</v>
       </c>
       <c r="D81" s="4">
-        <v>791</v>
+        <v>1184</v>
       </c>
       <c r="E81" s="4">
-        <v>1586</v>
+        <v>1560</v>
       </c>
       <c r="F81" s="4">
-        <v>1197</v>
+        <v>1343</v>
       </c>
       <c r="G81" s="4">
-        <v>1867</v>
+        <v>2061</v>
       </c>
       <c r="H81" s="4">
-        <v>2702</v>
+        <v>2051</v>
       </c>
       <c r="I81" s="4">
-        <v>2463</v>
+        <v>1578</v>
       </c>
       <c r="J81" s="4">
-        <v>2830</v>
+        <v>953</v>
       </c>
       <c r="K81" s="4">
-        <v>1124</v>
+        <v>137</v>
       </c>
       <c r="L81" s="4">
-        <v>672</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -4192,37 +4180,37 @@
         <v>91</v>
       </c>
       <c r="B82" s="7">
-        <v>13479</v>
+        <v>9707</v>
       </c>
       <c r="C82" s="4">
-        <v>2564</v>
+        <v>971</v>
       </c>
       <c r="D82" s="4">
-        <v>1184</v>
+        <v>363</v>
       </c>
       <c r="E82" s="4">
+        <v>776</v>
+      </c>
+      <c r="F82" s="4">
+        <v>657</v>
+      </c>
+      <c r="G82" s="4">
+        <v>1135</v>
+      </c>
+      <c r="H82" s="4">
+        <v>1826</v>
+      </c>
+      <c r="I82" s="4">
+        <v>1079</v>
+      </c>
+      <c r="J82" s="4">
         <v>1560</v>
       </c>
-      <c r="F82" s="4">
-        <v>1343</v>
-      </c>
-      <c r="G82" s="4">
-        <v>2061</v>
-      </c>
-      <c r="H82" s="4">
-        <v>2051</v>
-      </c>
-      <c r="I82" s="4">
-        <v>1578</v>
-      </c>
-      <c r="J82" s="4">
-        <v>953</v>
-      </c>
       <c r="K82" s="4">
-        <v>137</v>
+        <v>846</v>
       </c>
       <c r="L82" s="4">
-        <v>48</v>
+        <v>494</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -4230,37 +4218,37 @@
         <v>92</v>
       </c>
       <c r="B83" s="7">
-        <v>9707</v>
+        <v>9657</v>
       </c>
       <c r="C83" s="4">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D83" s="4">
-        <v>363</v>
+        <v>526</v>
       </c>
       <c r="E83" s="4">
-        <v>776</v>
+        <v>1231</v>
       </c>
       <c r="F83" s="4">
-        <v>657</v>
+        <v>1183</v>
       </c>
       <c r="G83" s="4">
-        <v>1135</v>
+        <v>1319</v>
       </c>
       <c r="H83" s="4">
-        <v>1826</v>
+        <v>1609</v>
       </c>
       <c r="I83" s="4">
-        <v>1079</v>
+        <v>1151</v>
       </c>
       <c r="J83" s="4">
-        <v>1560</v>
+        <v>1305</v>
       </c>
       <c r="K83" s="4">
-        <v>846</v>
+        <v>278</v>
       </c>
       <c r="L83" s="4">
-        <v>494</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -4268,37 +4256,37 @@
         <v>93</v>
       </c>
       <c r="B84" s="7">
-        <v>9657</v>
+        <v>11364</v>
       </c>
       <c r="C84" s="4">
-        <v>969</v>
+        <v>1053</v>
       </c>
       <c r="D84" s="4">
-        <v>526</v>
+        <v>713</v>
       </c>
       <c r="E84" s="4">
-        <v>1231</v>
+        <v>1284</v>
       </c>
       <c r="F84" s="4">
-        <v>1183</v>
+        <v>1090</v>
       </c>
       <c r="G84" s="4">
-        <v>1319</v>
+        <v>1874</v>
       </c>
       <c r="H84" s="4">
-        <v>1609</v>
+        <v>2098</v>
       </c>
       <c r="I84" s="4">
-        <v>1151</v>
+        <v>1446</v>
       </c>
       <c r="J84" s="4">
-        <v>1305</v>
+        <v>1199</v>
       </c>
       <c r="K84" s="4">
-        <v>278</v>
+        <v>460</v>
       </c>
       <c r="L84" s="4">
-        <v>86</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -4306,37 +4294,37 @@
         <v>94</v>
       </c>
       <c r="B85" s="7">
-        <v>11364</v>
+        <v>11599</v>
       </c>
       <c r="C85" s="4">
-        <v>1053</v>
+        <v>1320</v>
       </c>
       <c r="D85" s="4">
-        <v>713</v>
+        <v>735</v>
       </c>
       <c r="E85" s="4">
-        <v>1284</v>
+        <v>1257</v>
       </c>
       <c r="F85" s="4">
-        <v>1090</v>
+        <v>1260</v>
       </c>
       <c r="G85" s="4">
-        <v>1874</v>
+        <v>1704</v>
       </c>
       <c r="H85" s="4">
-        <v>2098</v>
+        <v>2010</v>
       </c>
       <c r="I85" s="4">
-        <v>1446</v>
+        <v>1430</v>
       </c>
       <c r="J85" s="4">
-        <v>1199</v>
+        <v>1356</v>
       </c>
       <c r="K85" s="4">
-        <v>460</v>
+        <v>398</v>
       </c>
       <c r="L85" s="4">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -4344,37 +4332,37 @@
         <v>95</v>
       </c>
       <c r="B86" s="7">
-        <v>11599</v>
+        <v>20322</v>
       </c>
       <c r="C86" s="4">
-        <v>1320</v>
+        <v>2625</v>
       </c>
       <c r="D86" s="4">
-        <v>735</v>
+        <v>1254</v>
       </c>
       <c r="E86" s="4">
-        <v>1257</v>
+        <v>2631</v>
       </c>
       <c r="F86" s="4">
-        <v>1260</v>
+        <v>2611</v>
       </c>
       <c r="G86" s="4">
-        <v>1704</v>
+        <v>2761</v>
       </c>
       <c r="H86" s="4">
-        <v>2010</v>
+        <v>3859</v>
       </c>
       <c r="I86" s="4">
-        <v>1430</v>
+        <v>2088</v>
       </c>
       <c r="J86" s="4">
-        <v>1356</v>
+        <v>1878</v>
       </c>
       <c r="K86" s="4">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="L86" s="4">
-        <v>129</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -4382,37 +4370,37 @@
         <v>96</v>
       </c>
       <c r="B87" s="7">
-        <v>20322</v>
+        <v>15128</v>
       </c>
       <c r="C87" s="4">
-        <v>2625</v>
+        <v>1069</v>
       </c>
       <c r="D87" s="4">
-        <v>1254</v>
+        <v>762</v>
       </c>
       <c r="E87" s="4">
-        <v>2631</v>
+        <v>1388</v>
       </c>
       <c r="F87" s="4">
-        <v>2611</v>
+        <v>1826</v>
       </c>
       <c r="G87" s="4">
-        <v>2761</v>
+        <v>1688</v>
       </c>
       <c r="H87" s="4">
-        <v>3859</v>
+        <v>2728</v>
       </c>
       <c r="I87" s="4">
-        <v>2088</v>
+        <v>2285</v>
       </c>
       <c r="J87" s="4">
-        <v>1878</v>
+        <v>2356</v>
       </c>
       <c r="K87" s="4">
-        <v>361</v>
+        <v>669</v>
       </c>
       <c r="L87" s="4">
-        <v>254</v>
+        <v>357</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -4420,37 +4408,37 @@
         <v>97</v>
       </c>
       <c r="B88" s="7">
-        <v>15128</v>
+        <v>37218</v>
       </c>
       <c r="C88" s="4">
-        <v>1069</v>
+        <v>1882</v>
       </c>
       <c r="D88" s="4">
-        <v>762</v>
+        <v>1011</v>
       </c>
       <c r="E88" s="4">
-        <v>1388</v>
+        <v>2020</v>
       </c>
       <c r="F88" s="4">
-        <v>1826</v>
+        <v>1728</v>
       </c>
       <c r="G88" s="4">
-        <v>1688</v>
+        <v>2565</v>
       </c>
       <c r="H88" s="4">
-        <v>2728</v>
+        <v>4998</v>
       </c>
       <c r="I88" s="4">
-        <v>2285</v>
+        <v>3712</v>
       </c>
       <c r="J88" s="4">
-        <v>2356</v>
+        <v>5715</v>
       </c>
       <c r="K88" s="4">
-        <v>669</v>
+        <v>3932</v>
       </c>
       <c r="L88" s="4">
-        <v>357</v>
+        <v>9655</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -4458,37 +4446,37 @@
         <v>98</v>
       </c>
       <c r="B89" s="7">
-        <v>482</v>
+        <v>18761</v>
       </c>
       <c r="C89" s="4">
-        <v>55</v>
+        <v>1554</v>
       </c>
       <c r="D89" s="4">
-        <v>33</v>
+        <v>909</v>
       </c>
       <c r="E89" s="4">
-        <v>74</v>
+        <v>1023</v>
       </c>
       <c r="F89" s="4">
-        <v>28</v>
+        <v>1052</v>
       </c>
       <c r="G89" s="4">
-        <v>100</v>
+        <v>1321</v>
       </c>
       <c r="H89" s="4">
-        <v>86</v>
+        <v>2098</v>
       </c>
       <c r="I89" s="4">
-        <v>49</v>
+        <v>1394</v>
       </c>
       <c r="J89" s="4">
-        <v>38</v>
+        <v>2506</v>
       </c>
       <c r="K89" s="4">
-        <v>3</v>
+        <v>1568</v>
       </c>
       <c r="L89" s="4">
-        <v>16</v>
+        <v>5336</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -4496,37 +4484,37 @@
         <v>99</v>
       </c>
       <c r="B90" s="7">
-        <v>37218</v>
+        <v>18931</v>
       </c>
       <c r="C90" s="4">
-        <v>1882</v>
+        <v>970</v>
       </c>
       <c r="D90" s="4">
-        <v>1011</v>
+        <v>404</v>
       </c>
       <c r="E90" s="4">
-        <v>2020</v>
+        <v>670</v>
       </c>
       <c r="F90" s="4">
-        <v>1728</v>
+        <v>725</v>
       </c>
       <c r="G90" s="4">
-        <v>2565</v>
+        <v>935</v>
       </c>
       <c r="H90" s="4">
-        <v>4998</v>
+        <v>2125</v>
       </c>
       <c r="I90" s="4">
-        <v>3712</v>
+        <v>1881</v>
       </c>
       <c r="J90" s="4">
-        <v>5715</v>
+        <v>3340</v>
       </c>
       <c r="K90" s="4">
-        <v>3932</v>
+        <v>2067</v>
       </c>
       <c r="L90" s="4">
-        <v>9655</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -4534,37 +4522,37 @@
         <v>100</v>
       </c>
       <c r="B91" s="7">
-        <v>18761</v>
+        <v>22306</v>
       </c>
       <c r="C91" s="4">
-        <v>1554</v>
+        <v>2335</v>
       </c>
       <c r="D91" s="4">
-        <v>909</v>
+        <v>1122</v>
       </c>
       <c r="E91" s="4">
-        <v>1023</v>
+        <v>1714</v>
       </c>
       <c r="F91" s="4">
-        <v>1052</v>
+        <v>1583</v>
       </c>
       <c r="G91" s="4">
-        <v>1321</v>
+        <v>1756</v>
       </c>
       <c r="H91" s="4">
-        <v>2098</v>
+        <v>3608</v>
       </c>
       <c r="I91" s="4">
-        <v>1394</v>
+        <v>2993</v>
       </c>
       <c r="J91" s="4">
-        <v>2506</v>
+        <v>3260</v>
       </c>
       <c r="K91" s="4">
-        <v>1568</v>
+        <v>1706</v>
       </c>
       <c r="L91" s="4">
-        <v>5336</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -4572,37 +4560,37 @@
         <v>101</v>
       </c>
       <c r="B92" s="7">
-        <v>18931</v>
+        <v>18107</v>
       </c>
       <c r="C92" s="4">
-        <v>970</v>
+        <v>2999</v>
       </c>
       <c r="D92" s="4">
-        <v>404</v>
+        <v>1656</v>
       </c>
       <c r="E92" s="4">
-        <v>670</v>
+        <v>2707</v>
       </c>
       <c r="F92" s="4">
-        <v>725</v>
+        <v>1911</v>
       </c>
       <c r="G92" s="4">
-        <v>935</v>
+        <v>1898</v>
       </c>
       <c r="H92" s="4">
-        <v>2125</v>
+        <v>2530</v>
       </c>
       <c r="I92" s="4">
-        <v>1881</v>
+        <v>1646</v>
       </c>
       <c r="J92" s="4">
-        <v>3340</v>
+        <v>1467</v>
       </c>
       <c r="K92" s="4">
-        <v>2067</v>
+        <v>632</v>
       </c>
       <c r="L92" s="4">
-        <v>5814</v>
+        <v>661</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -4610,75 +4598,75 @@
         <v>102</v>
       </c>
       <c r="B93" s="7">
-        <v>22306</v>
+        <v>30216</v>
       </c>
       <c r="C93" s="4">
-        <v>2335</v>
+        <v>5388</v>
       </c>
       <c r="D93" s="4">
-        <v>1122</v>
+        <v>3649</v>
       </c>
       <c r="E93" s="4">
-        <v>1714</v>
+        <v>4230</v>
       </c>
       <c r="F93" s="4">
-        <v>1583</v>
+        <v>2924</v>
       </c>
       <c r="G93" s="4">
-        <v>1756</v>
+        <v>2803</v>
       </c>
       <c r="H93" s="4">
-        <v>3608</v>
+        <v>4035</v>
       </c>
       <c r="I93" s="4">
-        <v>2993</v>
+        <v>1847</v>
       </c>
       <c r="J93" s="4">
-        <v>3260</v>
+        <v>2676</v>
       </c>
       <c r="K93" s="4">
+        <v>958</v>
+      </c>
+      <c r="L93" s="4">
         <v>1706</v>
       </c>
-      <c r="L93" s="4">
-        <v>2229</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B94" s="7">
-        <v>18107</v>
+        <v>39072</v>
       </c>
       <c r="C94" s="4">
-        <v>2999</v>
+        <v>2720</v>
       </c>
       <c r="D94" s="4">
-        <v>1656</v>
+        <v>1304</v>
       </c>
       <c r="E94" s="4">
-        <v>2707</v>
+        <v>2857</v>
       </c>
       <c r="F94" s="4">
-        <v>1911</v>
+        <v>2448</v>
       </c>
       <c r="G94" s="4">
-        <v>1898</v>
+        <v>2743</v>
       </c>
       <c r="H94" s="4">
-        <v>2530</v>
+        <v>4573</v>
       </c>
       <c r="I94" s="4">
-        <v>1646</v>
+        <v>3613</v>
       </c>
       <c r="J94" s="4">
-        <v>1467</v>
+        <v>5495</v>
       </c>
       <c r="K94" s="4">
-        <v>632</v>
+        <v>3533</v>
       </c>
       <c r="L94" s="4">
-        <v>661</v>
+        <v>9786</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -4686,75 +4674,75 @@
         <v>104</v>
       </c>
       <c r="B95" s="7">
-        <v>30216</v>
+        <v>25261</v>
       </c>
       <c r="C95" s="4">
-        <v>5388</v>
+        <v>2068</v>
       </c>
       <c r="D95" s="4">
-        <v>3649</v>
+        <v>1433</v>
       </c>
       <c r="E95" s="4">
-        <v>4230</v>
+        <v>2128</v>
       </c>
       <c r="F95" s="4">
-        <v>2924</v>
+        <v>2321</v>
       </c>
       <c r="G95" s="4">
-        <v>2803</v>
+        <v>2246</v>
       </c>
       <c r="H95" s="4">
-        <v>4035</v>
+        <v>3759</v>
       </c>
       <c r="I95" s="4">
-        <v>1847</v>
+        <v>2696</v>
       </c>
       <c r="J95" s="4">
-        <v>2676</v>
+        <v>3659</v>
       </c>
       <c r="K95" s="4">
-        <v>958</v>
+        <v>1649</v>
       </c>
       <c r="L95" s="4">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B96" s="7">
-        <v>39072</v>
+        <v>15964</v>
       </c>
       <c r="C96" s="4">
-        <v>2720</v>
+        <v>1398</v>
       </c>
       <c r="D96" s="4">
-        <v>1304</v>
+        <v>770</v>
       </c>
       <c r="E96" s="4">
-        <v>2857</v>
+        <v>857</v>
       </c>
       <c r="F96" s="4">
-        <v>2448</v>
+        <v>834</v>
       </c>
       <c r="G96" s="4">
-        <v>2743</v>
+        <v>1345</v>
       </c>
       <c r="H96" s="4">
-        <v>4573</v>
+        <v>1082</v>
       </c>
       <c r="I96" s="4">
-        <v>3613</v>
+        <v>859</v>
       </c>
       <c r="J96" s="4">
-        <v>5495</v>
+        <v>2546</v>
       </c>
       <c r="K96" s="4">
-        <v>3533</v>
+        <v>1773</v>
       </c>
       <c r="L96" s="4">
-        <v>9786</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -4762,37 +4750,37 @@
         <v>106</v>
       </c>
       <c r="B97" s="7">
-        <v>25261</v>
+        <v>29094</v>
       </c>
       <c r="C97" s="4">
-        <v>2068</v>
+        <v>1302</v>
       </c>
       <c r="D97" s="4">
-        <v>1433</v>
+        <v>504</v>
       </c>
       <c r="E97" s="4">
-        <v>2128</v>
+        <v>1436</v>
       </c>
       <c r="F97" s="4">
-        <v>2321</v>
+        <v>1251</v>
       </c>
       <c r="G97" s="4">
-        <v>2246</v>
+        <v>1911</v>
       </c>
       <c r="H97" s="4">
-        <v>3759</v>
+        <v>3136</v>
       </c>
       <c r="I97" s="4">
-        <v>2696</v>
+        <v>3694</v>
       </c>
       <c r="J97" s="4">
-        <v>3659</v>
+        <v>4849</v>
       </c>
       <c r="K97" s="4">
-        <v>1649</v>
+        <v>2674</v>
       </c>
       <c r="L97" s="4">
-        <v>3302</v>
+        <v>8337</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -4800,37 +4788,37 @@
         <v>107</v>
       </c>
       <c r="B98" s="7">
-        <v>15964</v>
+        <v>26173</v>
       </c>
       <c r="C98" s="4">
-        <v>1398</v>
+        <v>1691</v>
       </c>
       <c r="D98" s="4">
-        <v>770</v>
+        <v>1042</v>
       </c>
       <c r="E98" s="4">
-        <v>857</v>
+        <v>1397</v>
       </c>
       <c r="F98" s="4">
-        <v>834</v>
+        <v>1086</v>
       </c>
       <c r="G98" s="4">
-        <v>1345</v>
+        <v>2089</v>
       </c>
       <c r="H98" s="4">
-        <v>1082</v>
+        <v>3638</v>
       </c>
       <c r="I98" s="4">
-        <v>859</v>
+        <v>2873</v>
       </c>
       <c r="J98" s="4">
-        <v>2546</v>
+        <v>4706</v>
       </c>
       <c r="K98" s="4">
-        <v>1773</v>
+        <v>2279</v>
       </c>
       <c r="L98" s="4">
-        <v>4500</v>
+        <v>5372</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -4838,37 +4826,37 @@
         <v>108</v>
       </c>
       <c r="B99" s="7">
-        <v>29094</v>
+        <v>14877</v>
       </c>
       <c r="C99" s="4">
-        <v>1302</v>
+        <v>1012</v>
       </c>
       <c r="D99" s="4">
-        <v>504</v>
+        <v>350</v>
       </c>
       <c r="E99" s="4">
-        <v>1436</v>
+        <v>715</v>
       </c>
       <c r="F99" s="4">
-        <v>1251</v>
+        <v>624</v>
       </c>
       <c r="G99" s="4">
-        <v>1911</v>
+        <v>1093</v>
       </c>
       <c r="H99" s="4">
-        <v>3136</v>
+        <v>2038</v>
       </c>
       <c r="I99" s="4">
-        <v>3694</v>
+        <v>1744</v>
       </c>
       <c r="J99" s="4">
-        <v>4849</v>
+        <v>2625</v>
       </c>
       <c r="K99" s="4">
-        <v>2674</v>
+        <v>1810</v>
       </c>
       <c r="L99" s="4">
-        <v>8337</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -4876,37 +4864,37 @@
         <v>109</v>
       </c>
       <c r="B100" s="7">
-        <v>26173</v>
+        <v>10481</v>
       </c>
       <c r="C100" s="4">
-        <v>1691</v>
+        <v>623</v>
       </c>
       <c r="D100" s="4">
-        <v>1042</v>
+        <v>429</v>
       </c>
       <c r="E100" s="4">
-        <v>1397</v>
+        <v>632</v>
       </c>
       <c r="F100" s="4">
-        <v>1086</v>
+        <v>463</v>
       </c>
       <c r="G100" s="4">
-        <v>2089</v>
+        <v>702</v>
       </c>
       <c r="H100" s="4">
-        <v>3638</v>
+        <v>1320</v>
       </c>
       <c r="I100" s="4">
-        <v>2873</v>
+        <v>1321</v>
       </c>
       <c r="J100" s="4">
-        <v>4706</v>
+        <v>1960</v>
       </c>
       <c r="K100" s="4">
-        <v>2279</v>
+        <v>1307</v>
       </c>
       <c r="L100" s="4">
-        <v>5372</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -4914,37 +4902,37 @@
         <v>110</v>
       </c>
       <c r="B101" s="7">
-        <v>14877</v>
+        <v>66941</v>
       </c>
       <c r="C101" s="4">
-        <v>1012</v>
+        <v>5522</v>
       </c>
       <c r="D101" s="4">
-        <v>350</v>
+        <v>2752</v>
       </c>
       <c r="E101" s="4">
-        <v>715</v>
+        <v>3966</v>
       </c>
       <c r="F101" s="4">
-        <v>624</v>
+        <v>3753</v>
       </c>
       <c r="G101" s="4">
-        <v>1093</v>
+        <v>5190</v>
       </c>
       <c r="H101" s="4">
-        <v>2038</v>
+        <v>7957</v>
       </c>
       <c r="I101" s="4">
-        <v>1744</v>
+        <v>6151</v>
       </c>
       <c r="J101" s="4">
-        <v>2625</v>
+        <v>10206</v>
       </c>
       <c r="K101" s="4">
-        <v>1810</v>
+        <v>6099</v>
       </c>
       <c r="L101" s="4">
-        <v>2866</v>
+        <v>15345</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -4952,37 +4940,37 @@
         <v>111</v>
       </c>
       <c r="B102" s="7">
-        <v>10481</v>
+        <v>32169</v>
       </c>
       <c r="C102" s="4">
-        <v>623</v>
+        <v>1968</v>
       </c>
       <c r="D102" s="4">
-        <v>429</v>
+        <v>1254</v>
       </c>
       <c r="E102" s="4">
-        <v>632</v>
+        <v>1916</v>
       </c>
       <c r="F102" s="4">
-        <v>463</v>
+        <v>1414</v>
       </c>
       <c r="G102" s="4">
-        <v>702</v>
+        <v>1833</v>
       </c>
       <c r="H102" s="4">
-        <v>1320</v>
+        <v>3518</v>
       </c>
       <c r="I102" s="4">
-        <v>1321</v>
+        <v>3022</v>
       </c>
       <c r="J102" s="4">
-        <v>1960</v>
+        <v>4479</v>
       </c>
       <c r="K102" s="4">
-        <v>1307</v>
+        <v>3539</v>
       </c>
       <c r="L102" s="4">
-        <v>1724</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -4990,37 +4978,37 @@
         <v>112</v>
       </c>
       <c r="B103" s="7">
-        <v>66941</v>
+        <v>43515</v>
       </c>
       <c r="C103" s="4">
-        <v>5522</v>
+        <v>2484</v>
       </c>
       <c r="D103" s="4">
-        <v>2752</v>
+        <v>1184</v>
       </c>
       <c r="E103" s="4">
-        <v>3966</v>
+        <v>1754</v>
       </c>
       <c r="F103" s="4">
-        <v>3753</v>
+        <v>1926</v>
       </c>
       <c r="G103" s="4">
-        <v>5190</v>
+        <v>3108</v>
       </c>
       <c r="H103" s="4">
-        <v>7957</v>
+        <v>7284</v>
       </c>
       <c r="I103" s="4">
-        <v>6151</v>
+        <v>4677</v>
       </c>
       <c r="J103" s="4">
-        <v>10206</v>
+        <v>7513</v>
       </c>
       <c r="K103" s="4">
-        <v>6099</v>
+        <v>3459</v>
       </c>
       <c r="L103" s="4">
-        <v>15345</v>
+        <v>10126</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -5028,37 +5016,37 @@
         <v>113</v>
       </c>
       <c r="B104" s="7">
-        <v>32169</v>
+        <v>43613</v>
       </c>
       <c r="C104" s="4">
-        <v>1968</v>
+        <v>2153</v>
       </c>
       <c r="D104" s="4">
-        <v>1254</v>
+        <v>1170</v>
       </c>
       <c r="E104" s="4">
-        <v>1916</v>
+        <v>3072</v>
       </c>
       <c r="F104" s="4">
-        <v>1414</v>
+        <v>1942</v>
       </c>
       <c r="G104" s="4">
-        <v>1833</v>
+        <v>3117</v>
       </c>
       <c r="H104" s="4">
-        <v>3518</v>
+        <v>6778</v>
       </c>
       <c r="I104" s="4">
-        <v>3022</v>
+        <v>5279</v>
       </c>
       <c r="J104" s="4">
-        <v>4479</v>
+        <v>7047</v>
       </c>
       <c r="K104" s="4">
-        <v>3539</v>
+        <v>4104</v>
       </c>
       <c r="L104" s="4">
-        <v>9226</v>
+        <v>8951</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -5066,37 +5054,37 @@
         <v>114</v>
       </c>
       <c r="B105" s="7">
-        <v>43515</v>
+        <v>28751</v>
       </c>
       <c r="C105" s="4">
-        <v>2484</v>
+        <v>1075</v>
       </c>
       <c r="D105" s="4">
-        <v>1184</v>
+        <v>485</v>
       </c>
       <c r="E105" s="4">
-        <v>1754</v>
+        <v>1030</v>
       </c>
       <c r="F105" s="4">
-        <v>1926</v>
+        <v>1004</v>
       </c>
       <c r="G105" s="4">
-        <v>3108</v>
+        <v>1312</v>
       </c>
       <c r="H105" s="4">
-        <v>7284</v>
+        <v>2805</v>
       </c>
       <c r="I105" s="4">
-        <v>4677</v>
+        <v>2538</v>
       </c>
       <c r="J105" s="4">
-        <v>7513</v>
+        <v>4061</v>
       </c>
       <c r="K105" s="4">
-        <v>3459</v>
+        <v>2853</v>
       </c>
       <c r="L105" s="4">
-        <v>10126</v>
+        <v>11588</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -5104,37 +5092,37 @@
         <v>115</v>
       </c>
       <c r="B106" s="7">
-        <v>43613</v>
+        <v>18678</v>
       </c>
       <c r="C106" s="4">
-        <v>2153</v>
+        <v>2821</v>
       </c>
       <c r="D106" s="4">
-        <v>1170</v>
+        <v>1349</v>
       </c>
       <c r="E106" s="4">
-        <v>3072</v>
+        <v>2420</v>
       </c>
       <c r="F106" s="4">
-        <v>1942</v>
+        <v>2142</v>
       </c>
       <c r="G106" s="4">
-        <v>3117</v>
+        <v>2667</v>
       </c>
       <c r="H106" s="4">
-        <v>6778</v>
+        <v>2971</v>
       </c>
       <c r="I106" s="4">
-        <v>5279</v>
+        <v>1600</v>
       </c>
       <c r="J106" s="4">
-        <v>7047</v>
+        <v>1498</v>
       </c>
       <c r="K106" s="4">
-        <v>4104</v>
+        <v>519</v>
       </c>
       <c r="L106" s="4">
-        <v>8951</v>
+        <v>691</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -5142,37 +5130,37 @@
         <v>116</v>
       </c>
       <c r="B107" s="7">
-        <v>28751</v>
+        <v>8130</v>
       </c>
       <c r="C107" s="4">
-        <v>1075</v>
+        <v>1745</v>
       </c>
       <c r="D107" s="4">
-        <v>485</v>
+        <v>958</v>
       </c>
       <c r="E107" s="4">
+        <v>1297</v>
+      </c>
+      <c r="F107" s="4">
+        <v>768</v>
+      </c>
+      <c r="G107" s="4">
+        <v>1188</v>
+      </c>
+      <c r="H107" s="4">
         <v>1030</v>
       </c>
-      <c r="F107" s="4">
-        <v>1004</v>
-      </c>
-      <c r="G107" s="4">
-        <v>1312</v>
-      </c>
-      <c r="H107" s="4">
-        <v>2805</v>
-      </c>
       <c r="I107" s="4">
-        <v>2538</v>
+        <v>586</v>
       </c>
       <c r="J107" s="4">
-        <v>4061</v>
+        <v>361</v>
       </c>
       <c r="K107" s="4">
-        <v>2853</v>
+        <v>118</v>
       </c>
       <c r="L107" s="4">
-        <v>11588</v>
+        <v>79</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -5180,37 +5168,37 @@
         <v>117</v>
       </c>
       <c r="B108" s="7">
-        <v>18678</v>
+        <v>20166</v>
       </c>
       <c r="C108" s="4">
-        <v>2821</v>
+        <v>3309</v>
       </c>
       <c r="D108" s="4">
-        <v>1349</v>
+        <v>983</v>
       </c>
       <c r="E108" s="4">
-        <v>2420</v>
+        <v>2036</v>
       </c>
       <c r="F108" s="4">
-        <v>2142</v>
+        <v>2012</v>
       </c>
       <c r="G108" s="4">
-        <v>2667</v>
+        <v>1734</v>
       </c>
       <c r="H108" s="4">
-        <v>2971</v>
+        <v>2485</v>
       </c>
       <c r="I108" s="4">
-        <v>1600</v>
+        <v>1779</v>
       </c>
       <c r="J108" s="4">
-        <v>1498</v>
+        <v>2229</v>
       </c>
       <c r="K108" s="4">
-        <v>519</v>
+        <v>1313</v>
       </c>
       <c r="L108" s="4">
-        <v>691</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -5218,37 +5206,37 @@
         <v>118</v>
       </c>
       <c r="B109" s="7">
-        <v>8130</v>
+        <v>33203</v>
       </c>
       <c r="C109" s="4">
-        <v>1745</v>
+        <v>5799</v>
       </c>
       <c r="D109" s="4">
-        <v>958</v>
+        <v>3101</v>
       </c>
       <c r="E109" s="4">
-        <v>1297</v>
+        <v>4408</v>
       </c>
       <c r="F109" s="4">
-        <v>768</v>
+        <v>3727</v>
       </c>
       <c r="G109" s="4">
-        <v>1188</v>
+        <v>4532</v>
       </c>
       <c r="H109" s="4">
-        <v>1030</v>
+        <v>5138</v>
       </c>
       <c r="I109" s="4">
-        <v>586</v>
+        <v>2738</v>
       </c>
       <c r="J109" s="4">
-        <v>361</v>
+        <v>1837</v>
       </c>
       <c r="K109" s="4">
-        <v>118</v>
+        <v>921</v>
       </c>
       <c r="L109" s="4">
-        <v>79</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -5256,37 +5244,37 @@
         <v>119</v>
       </c>
       <c r="B110" s="7">
-        <v>20166</v>
+        <v>18506</v>
       </c>
       <c r="C110" s="4">
-        <v>3309</v>
+        <v>2949</v>
       </c>
       <c r="D110" s="4">
+        <v>1554</v>
+      </c>
+      <c r="E110" s="4">
+        <v>1746</v>
+      </c>
+      <c r="F110" s="4">
+        <v>1859</v>
+      </c>
+      <c r="G110" s="4">
+        <v>1814</v>
+      </c>
+      <c r="H110" s="4">
+        <v>2910</v>
+      </c>
+      <c r="I110" s="4">
+        <v>1609</v>
+      </c>
+      <c r="J110" s="4">
+        <v>2150</v>
+      </c>
+      <c r="K110" s="4">
+        <v>932</v>
+      </c>
+      <c r="L110" s="4">
         <v>983</v>
-      </c>
-      <c r="E110" s="4">
-        <v>2036</v>
-      </c>
-      <c r="F110" s="4">
-        <v>2012</v>
-      </c>
-      <c r="G110" s="4">
-        <v>1734</v>
-      </c>
-      <c r="H110" s="4">
-        <v>2485</v>
-      </c>
-      <c r="I110" s="4">
-        <v>1779</v>
-      </c>
-      <c r="J110" s="4">
-        <v>2229</v>
-      </c>
-      <c r="K110" s="4">
-        <v>1313</v>
-      </c>
-      <c r="L110" s="4">
-        <v>2286</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -5294,37 +5282,37 @@
         <v>120</v>
       </c>
       <c r="B111" s="7">
-        <v>33203</v>
+        <v>22874</v>
       </c>
       <c r="C111" s="4">
-        <v>5799</v>
+        <v>3248</v>
       </c>
       <c r="D111" s="4">
-        <v>3101</v>
+        <v>2468</v>
       </c>
       <c r="E111" s="4">
-        <v>4408</v>
+        <v>3041</v>
       </c>
       <c r="F111" s="4">
-        <v>3727</v>
+        <v>2636</v>
       </c>
       <c r="G111" s="4">
-        <v>4532</v>
+        <v>2443</v>
       </c>
       <c r="H111" s="4">
-        <v>5138</v>
+        <v>3138</v>
       </c>
       <c r="I111" s="4">
-        <v>2738</v>
+        <v>1721</v>
       </c>
       <c r="J111" s="4">
-        <v>1837</v>
+        <v>2428</v>
       </c>
       <c r="K111" s="4">
-        <v>921</v>
+        <v>617</v>
       </c>
       <c r="L111" s="4">
-        <v>1002</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -5332,37 +5320,37 @@
         <v>121</v>
       </c>
       <c r="B112" s="7">
-        <v>18506</v>
+        <v>22183</v>
       </c>
       <c r="C112" s="4">
-        <v>2949</v>
+        <v>4585</v>
       </c>
       <c r="D112" s="4">
-        <v>1554</v>
+        <v>2669</v>
       </c>
       <c r="E112" s="4">
-        <v>1746</v>
+        <v>3314</v>
       </c>
       <c r="F112" s="4">
-        <v>1859</v>
+        <v>2425</v>
       </c>
       <c r="G112" s="4">
-        <v>1814</v>
+        <v>2576</v>
       </c>
       <c r="H112" s="4">
-        <v>2910</v>
+        <v>2917</v>
       </c>
       <c r="I112" s="4">
-        <v>1609</v>
+        <v>1566</v>
       </c>
       <c r="J112" s="4">
-        <v>2150</v>
+        <v>1312</v>
       </c>
       <c r="K112" s="4">
-        <v>932</v>
+        <v>390</v>
       </c>
       <c r="L112" s="4">
-        <v>983</v>
+        <v>429</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -5370,37 +5358,37 @@
         <v>122</v>
       </c>
       <c r="B113" s="7">
-        <v>22874</v>
+        <v>18168</v>
       </c>
       <c r="C113" s="4">
-        <v>3248</v>
+        <v>1886</v>
       </c>
       <c r="D113" s="4">
-        <v>2468</v>
+        <v>1389</v>
       </c>
       <c r="E113" s="4">
-        <v>3041</v>
+        <v>2726</v>
       </c>
       <c r="F113" s="4">
-        <v>2636</v>
+        <v>2223</v>
       </c>
       <c r="G113" s="4">
-        <v>2443</v>
+        <v>2585</v>
       </c>
       <c r="H113" s="4">
-        <v>3138</v>
+        <v>3144</v>
       </c>
       <c r="I113" s="4">
-        <v>1721</v>
+        <v>1885</v>
       </c>
       <c r="J113" s="4">
-        <v>2428</v>
+        <v>1515</v>
       </c>
       <c r="K113" s="4">
-        <v>617</v>
+        <v>475</v>
       </c>
       <c r="L113" s="4">
-        <v>1134</v>
+        <v>340</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -5408,37 +5396,37 @@
         <v>123</v>
       </c>
       <c r="B114" s="7">
-        <v>22183</v>
+        <v>25490</v>
       </c>
       <c r="C114" s="4">
-        <v>4585</v>
+        <v>2900</v>
       </c>
       <c r="D114" s="4">
-        <v>2669</v>
+        <v>1667</v>
       </c>
       <c r="E114" s="4">
-        <v>3314</v>
+        <v>3167</v>
       </c>
       <c r="F114" s="4">
-        <v>2425</v>
+        <v>2763</v>
       </c>
       <c r="G114" s="4">
-        <v>2576</v>
+        <v>3354</v>
       </c>
       <c r="H114" s="4">
-        <v>2917</v>
+        <v>4035</v>
       </c>
       <c r="I114" s="4">
-        <v>1566</v>
+        <v>3027</v>
       </c>
       <c r="J114" s="4">
-        <v>1312</v>
+        <v>2585</v>
       </c>
       <c r="K114" s="4">
-        <v>390</v>
+        <v>1013</v>
       </c>
       <c r="L114" s="4">
-        <v>429</v>
+        <v>979</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -5446,37 +5434,37 @@
         <v>124</v>
       </c>
       <c r="B115" s="7">
-        <v>18168</v>
+        <v>29283</v>
       </c>
       <c r="C115" s="4">
-        <v>1886</v>
+        <v>4447</v>
       </c>
       <c r="D115" s="4">
-        <v>1389</v>
+        <v>2386</v>
       </c>
       <c r="E115" s="4">
-        <v>2726</v>
+        <v>3907</v>
       </c>
       <c r="F115" s="4">
-        <v>2223</v>
+        <v>3711</v>
       </c>
       <c r="G115" s="4">
-        <v>2585</v>
+        <v>3928</v>
       </c>
       <c r="H115" s="4">
-        <v>3144</v>
+        <v>4615</v>
       </c>
       <c r="I115" s="4">
-        <v>1885</v>
+        <v>2817</v>
       </c>
       <c r="J115" s="4">
-        <v>1515</v>
+        <v>2121</v>
       </c>
       <c r="K115" s="4">
-        <v>475</v>
+        <v>681</v>
       </c>
       <c r="L115" s="4">
-        <v>340</v>
+        <v>670</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -5484,37 +5472,37 @@
         <v>125</v>
       </c>
       <c r="B116" s="7">
-        <v>25490</v>
+        <v>7283</v>
       </c>
       <c r="C116" s="4">
-        <v>2900</v>
+        <v>1366</v>
       </c>
       <c r="D116" s="4">
-        <v>1667</v>
+        <v>850</v>
       </c>
       <c r="E116" s="4">
-        <v>3167</v>
+        <v>1208</v>
       </c>
       <c r="F116" s="4">
-        <v>2763</v>
+        <v>735</v>
       </c>
       <c r="G116" s="4">
-        <v>3354</v>
+        <v>739</v>
       </c>
       <c r="H116" s="4">
-        <v>4035</v>
+        <v>1106</v>
       </c>
       <c r="I116" s="4">
-        <v>3027</v>
+        <v>611</v>
       </c>
       <c r="J116" s="4">
-        <v>2585</v>
+        <v>400</v>
       </c>
       <c r="K116" s="4">
-        <v>1013</v>
+        <v>165</v>
       </c>
       <c r="L116" s="4">
-        <v>979</v>
+        <v>103</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -5522,37 +5510,37 @@
         <v>126</v>
       </c>
       <c r="B117" s="7">
-        <v>29283</v>
+        <v>34018</v>
       </c>
       <c r="C117" s="4">
-        <v>4447</v>
+        <v>3008</v>
       </c>
       <c r="D117" s="4">
-        <v>2386</v>
+        <v>1722</v>
       </c>
       <c r="E117" s="4">
-        <v>3907</v>
+        <v>3441</v>
       </c>
       <c r="F117" s="4">
-        <v>3711</v>
+        <v>3337</v>
       </c>
       <c r="G117" s="4">
-        <v>3928</v>
+        <v>4870</v>
       </c>
       <c r="H117" s="4">
-        <v>4615</v>
+        <v>6485</v>
       </c>
       <c r="I117" s="4">
-        <v>2817</v>
+        <v>4316</v>
       </c>
       <c r="J117" s="4">
-        <v>2121</v>
+        <v>4374</v>
       </c>
       <c r="K117" s="4">
-        <v>681</v>
+        <v>1510</v>
       </c>
       <c r="L117" s="4">
-        <v>670</v>
+        <v>955</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -5560,37 +5548,37 @@
         <v>127</v>
       </c>
       <c r="B118" s="7">
-        <v>0</v>
+        <v>10958</v>
       </c>
       <c r="C118" s="4">
-        <v>0</v>
+        <v>1109</v>
       </c>
       <c r="D118" s="4">
-        <v>0</v>
+        <v>584</v>
       </c>
       <c r="E118" s="4">
-        <v>0</v>
+        <v>1316</v>
       </c>
       <c r="F118" s="4">
-        <v>0</v>
+        <v>1396</v>
       </c>
       <c r="G118" s="4">
-        <v>0</v>
+        <v>1502</v>
       </c>
       <c r="H118" s="4">
-        <v>0</v>
+        <v>1728</v>
       </c>
       <c r="I118" s="4">
-        <v>0</v>
+        <v>1155</v>
       </c>
       <c r="J118" s="4">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="K118" s="4">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="L118" s="4">
-        <v>0</v>
+        <v>401</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -5598,37 +5586,37 @@
         <v>128</v>
       </c>
       <c r="B119" s="7">
-        <v>7283</v>
+        <v>20793</v>
       </c>
       <c r="C119" s="4">
-        <v>1366</v>
+        <v>1304</v>
       </c>
       <c r="D119" s="4">
-        <v>850</v>
+        <v>929</v>
       </c>
       <c r="E119" s="4">
-        <v>1208</v>
+        <v>2025</v>
       </c>
       <c r="F119" s="4">
-        <v>735</v>
+        <v>1539</v>
       </c>
       <c r="G119" s="4">
-        <v>739</v>
+        <v>2727</v>
       </c>
       <c r="H119" s="4">
-        <v>1106</v>
+        <v>4362</v>
       </c>
       <c r="I119" s="4">
-        <v>611</v>
+        <v>2889</v>
       </c>
       <c r="J119" s="4">
-        <v>400</v>
+        <v>3228</v>
       </c>
       <c r="K119" s="4">
-        <v>165</v>
+        <v>1176</v>
       </c>
       <c r="L119" s="4">
-        <v>103</v>
+        <v>614</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -5636,37 +5624,37 @@
         <v>129</v>
       </c>
       <c r="B120" s="7">
-        <v>34018</v>
+        <v>26309</v>
       </c>
       <c r="C120" s="4">
-        <v>3008</v>
+        <v>1660</v>
       </c>
       <c r="D120" s="4">
-        <v>1722</v>
+        <v>1251</v>
       </c>
       <c r="E120" s="4">
-        <v>3441</v>
+        <v>2671</v>
       </c>
       <c r="F120" s="4">
-        <v>3337</v>
+        <v>2708</v>
       </c>
       <c r="G120" s="4">
-        <v>4870</v>
+        <v>3324</v>
       </c>
       <c r="H120" s="4">
-        <v>6485</v>
+        <v>5155</v>
       </c>
       <c r="I120" s="4">
-        <v>4316</v>
+        <v>3351</v>
       </c>
       <c r="J120" s="4">
-        <v>4374</v>
+        <v>3761</v>
       </c>
       <c r="K120" s="4">
-        <v>1510</v>
+        <v>1100</v>
       </c>
       <c r="L120" s="4">
-        <v>955</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -5674,37 +5662,37 @@
         <v>130</v>
       </c>
       <c r="B121" s="7">
-        <v>10958</v>
+        <v>8352</v>
       </c>
       <c r="C121" s="4">
-        <v>1109</v>
+        <v>414</v>
       </c>
       <c r="D121" s="4">
-        <v>584</v>
+        <v>411</v>
       </c>
       <c r="E121" s="4">
-        <v>1316</v>
+        <v>797</v>
       </c>
       <c r="F121" s="4">
-        <v>1396</v>
+        <v>1042</v>
       </c>
       <c r="G121" s="4">
-        <v>1502</v>
+        <v>1581</v>
       </c>
       <c r="H121" s="4">
-        <v>1728</v>
+        <v>1584</v>
       </c>
       <c r="I121" s="4">
-        <v>1155</v>
+        <v>845</v>
       </c>
       <c r="J121" s="4">
-        <v>1260</v>
+        <v>926</v>
       </c>
       <c r="K121" s="4">
-        <v>507</v>
+        <v>413</v>
       </c>
       <c r="L121" s="4">
-        <v>401</v>
+        <v>339</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -5712,37 +5700,37 @@
         <v>131</v>
       </c>
       <c r="B122" s="7">
-        <v>20793</v>
+        <v>16388</v>
       </c>
       <c r="C122" s="4">
-        <v>1304</v>
+        <v>992</v>
       </c>
       <c r="D122" s="4">
-        <v>929</v>
+        <v>748</v>
       </c>
       <c r="E122" s="4">
-        <v>2025</v>
+        <v>1530</v>
       </c>
       <c r="F122" s="4">
-        <v>1539</v>
+        <v>1889</v>
       </c>
       <c r="G122" s="4">
-        <v>2727</v>
+        <v>2582</v>
       </c>
       <c r="H122" s="4">
-        <v>4362</v>
+        <v>3176</v>
       </c>
       <c r="I122" s="4">
-        <v>2889</v>
+        <v>2122</v>
       </c>
       <c r="J122" s="4">
-        <v>3228</v>
+        <v>2353</v>
       </c>
       <c r="K122" s="4">
-        <v>1176</v>
+        <v>596</v>
       </c>
       <c r="L122" s="4">
-        <v>614</v>
+        <v>400</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -5750,37 +5738,37 @@
         <v>132</v>
       </c>
       <c r="B123" s="7">
-        <v>162</v>
+        <v>11533</v>
       </c>
       <c r="C123" s="4">
-        <v>0</v>
+        <v>493</v>
       </c>
       <c r="D123" s="4">
-        <v>26</v>
+        <v>596</v>
       </c>
       <c r="E123" s="4">
-        <v>20</v>
+        <v>1320</v>
       </c>
       <c r="F123" s="4">
-        <v>0</v>
+        <v>1796</v>
       </c>
       <c r="G123" s="4">
-        <v>22</v>
+        <v>1815</v>
       </c>
       <c r="H123" s="4">
-        <v>11</v>
+        <v>2393</v>
       </c>
       <c r="I123" s="4">
-        <v>26</v>
+        <v>1306</v>
       </c>
       <c r="J123" s="4">
-        <v>53</v>
+        <v>1204</v>
       </c>
       <c r="K123" s="4">
-        <v>4</v>
+        <v>422</v>
       </c>
       <c r="L123" s="4">
-        <v>0</v>
+        <v>188</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -5788,37 +5776,37 @@
         <v>133</v>
       </c>
       <c r="B124" s="7">
-        <v>26309</v>
+        <v>6264</v>
       </c>
       <c r="C124" s="4">
-        <v>1660</v>
+        <v>403</v>
       </c>
       <c r="D124" s="4">
-        <v>1251</v>
+        <v>339</v>
       </c>
       <c r="E124" s="4">
-        <v>2671</v>
+        <v>574</v>
       </c>
       <c r="F124" s="4">
-        <v>2708</v>
+        <v>676</v>
       </c>
       <c r="G124" s="4">
-        <v>3324</v>
+        <v>927</v>
       </c>
       <c r="H124" s="4">
-        <v>5155</v>
+        <v>1201</v>
       </c>
       <c r="I124" s="4">
-        <v>3351</v>
+        <v>897</v>
       </c>
       <c r="J124" s="4">
-        <v>3761</v>
+        <v>829</v>
       </c>
       <c r="K124" s="4">
-        <v>1100</v>
+        <v>284</v>
       </c>
       <c r="L124" s="4">
-        <v>1328</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -5826,37 +5814,37 @@
         <v>134</v>
       </c>
       <c r="B125" s="7">
-        <v>8352</v>
+        <v>36495</v>
       </c>
       <c r="C125" s="4">
-        <v>414</v>
+        <v>2732</v>
       </c>
       <c r="D125" s="4">
-        <v>411</v>
+        <v>1798</v>
       </c>
       <c r="E125" s="4">
-        <v>797</v>
+        <v>4354</v>
       </c>
       <c r="F125" s="4">
-        <v>1042</v>
+        <v>4248</v>
       </c>
       <c r="G125" s="4">
-        <v>1581</v>
+        <v>5580</v>
       </c>
       <c r="H125" s="4">
-        <v>1584</v>
+        <v>7007</v>
       </c>
       <c r="I125" s="4">
-        <v>845</v>
+        <v>4499</v>
       </c>
       <c r="J125" s="4">
-        <v>926</v>
+        <v>3964</v>
       </c>
       <c r="K125" s="4">
-        <v>413</v>
+        <v>1277</v>
       </c>
       <c r="L125" s="4">
-        <v>339</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -5864,37 +5852,37 @@
         <v>135</v>
       </c>
       <c r="B126" s="7">
-        <v>16388</v>
+        <v>16253</v>
       </c>
       <c r="C126" s="4">
-        <v>992</v>
+        <v>1505</v>
       </c>
       <c r="D126" s="4">
-        <v>748</v>
+        <v>872</v>
       </c>
       <c r="E126" s="4">
-        <v>1530</v>
+        <v>2275</v>
       </c>
       <c r="F126" s="4">
-        <v>1889</v>
+        <v>1911</v>
       </c>
       <c r="G126" s="4">
-        <v>2582</v>
+        <v>2349</v>
       </c>
       <c r="H126" s="4">
-        <v>3176</v>
+        <v>3238</v>
       </c>
       <c r="I126" s="4">
-        <v>2122</v>
+        <v>2155</v>
       </c>
       <c r="J126" s="4">
-        <v>2353</v>
+        <v>1275</v>
       </c>
       <c r="K126" s="4">
-        <v>596</v>
+        <v>391</v>
       </c>
       <c r="L126" s="4">
-        <v>400</v>
+        <v>282</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -5902,37 +5890,37 @@
         <v>136</v>
       </c>
       <c r="B127" s="7">
-        <v>11533</v>
+        <v>27528</v>
       </c>
       <c r="C127" s="4">
-        <v>493</v>
+        <v>2250</v>
       </c>
       <c r="D127" s="4">
-        <v>596</v>
+        <v>1666</v>
       </c>
       <c r="E127" s="4">
-        <v>1320</v>
+        <v>3929</v>
       </c>
       <c r="F127" s="4">
-        <v>1796</v>
+        <v>3268</v>
       </c>
       <c r="G127" s="4">
-        <v>1815</v>
+        <v>3977</v>
       </c>
       <c r="H127" s="4">
-        <v>2393</v>
+        <v>5431</v>
       </c>
       <c r="I127" s="4">
-        <v>1306</v>
+        <v>2889</v>
       </c>
       <c r="J127" s="4">
-        <v>1204</v>
+        <v>2767</v>
       </c>
       <c r="K127" s="4">
-        <v>422</v>
+        <v>732</v>
       </c>
       <c r="L127" s="4">
-        <v>188</v>
+        <v>619</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -5940,37 +5928,37 @@
         <v>137</v>
       </c>
       <c r="B128" s="7">
-        <v>6264</v>
+        <v>11561</v>
       </c>
       <c r="C128" s="4">
-        <v>403</v>
+        <v>773</v>
       </c>
       <c r="D128" s="4">
-        <v>339</v>
+        <v>542</v>
       </c>
       <c r="E128" s="4">
-        <v>574</v>
+        <v>1313</v>
       </c>
       <c r="F128" s="4">
-        <v>676</v>
+        <v>1014</v>
       </c>
       <c r="G128" s="4">
-        <v>927</v>
+        <v>1445</v>
       </c>
       <c r="H128" s="4">
-        <v>1201</v>
+        <v>2105</v>
       </c>
       <c r="I128" s="4">
-        <v>897</v>
+        <v>1756</v>
       </c>
       <c r="J128" s="4">
-        <v>829</v>
+        <v>1504</v>
       </c>
       <c r="K128" s="4">
-        <v>284</v>
+        <v>749</v>
       </c>
       <c r="L128" s="4">
-        <v>134</v>
+        <v>360</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -5978,37 +5966,37 @@
         <v>138</v>
       </c>
       <c r="B129" s="7">
-        <v>36495</v>
+        <v>23963</v>
       </c>
       <c r="C129" s="4">
-        <v>2732</v>
+        <v>2094</v>
       </c>
       <c r="D129" s="4">
-        <v>1798</v>
+        <v>1427</v>
       </c>
       <c r="E129" s="4">
-        <v>4354</v>
+        <v>3076</v>
       </c>
       <c r="F129" s="4">
-        <v>4248</v>
+        <v>2514</v>
       </c>
       <c r="G129" s="4">
-        <v>5580</v>
+        <v>3203</v>
       </c>
       <c r="H129" s="4">
-        <v>7007</v>
+        <v>4588</v>
       </c>
       <c r="I129" s="4">
-        <v>4499</v>
+        <v>3051</v>
       </c>
       <c r="J129" s="4">
-        <v>3964</v>
+        <v>2776</v>
       </c>
       <c r="K129" s="4">
-        <v>1277</v>
+        <v>678</v>
       </c>
       <c r="L129" s="4">
-        <v>1036</v>
+        <v>556</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -6016,37 +6004,37 @@
         <v>139</v>
       </c>
       <c r="B130" s="7">
-        <v>16253</v>
+        <v>14899</v>
       </c>
       <c r="C130" s="4">
-        <v>1505</v>
+        <v>816</v>
       </c>
       <c r="D130" s="4">
-        <v>872</v>
+        <v>641</v>
       </c>
       <c r="E130" s="4">
-        <v>2275</v>
+        <v>1370</v>
       </c>
       <c r="F130" s="4">
-        <v>1911</v>
+        <v>1399</v>
       </c>
       <c r="G130" s="4">
-        <v>2349</v>
+        <v>1618</v>
       </c>
       <c r="H130" s="4">
-        <v>3238</v>
+        <v>2210</v>
       </c>
       <c r="I130" s="4">
-        <v>2155</v>
+        <v>2184</v>
       </c>
       <c r="J130" s="4">
-        <v>1275</v>
+        <v>2990</v>
       </c>
       <c r="K130" s="4">
-        <v>391</v>
+        <v>898</v>
       </c>
       <c r="L130" s="4">
-        <v>282</v>
+        <v>773</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -6054,37 +6042,37 @@
         <v>140</v>
       </c>
       <c r="B131" s="7">
-        <v>27528</v>
+        <v>10629</v>
       </c>
       <c r="C131" s="4">
-        <v>2250</v>
+        <v>648</v>
       </c>
       <c r="D131" s="4">
-        <v>1666</v>
+        <v>551</v>
       </c>
       <c r="E131" s="4">
-        <v>3929</v>
+        <v>840</v>
       </c>
       <c r="F131" s="4">
-        <v>3268</v>
+        <v>970</v>
       </c>
       <c r="G131" s="4">
-        <v>3977</v>
+        <v>1619</v>
       </c>
       <c r="H131" s="4">
-        <v>5431</v>
+        <v>2438</v>
       </c>
       <c r="I131" s="4">
-        <v>2889</v>
+        <v>1591</v>
       </c>
       <c r="J131" s="4">
-        <v>2767</v>
+        <v>1211</v>
       </c>
       <c r="K131" s="4">
-        <v>732</v>
+        <v>510</v>
       </c>
       <c r="L131" s="4">
-        <v>619</v>
+        <v>251</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -6092,37 +6080,37 @@
         <v>141</v>
       </c>
       <c r="B132" s="7">
-        <v>11561</v>
+        <v>38771</v>
       </c>
       <c r="C132" s="4">
-        <v>773</v>
+        <v>2535</v>
       </c>
       <c r="D132" s="4">
-        <v>542</v>
+        <v>1437</v>
       </c>
       <c r="E132" s="4">
-        <v>1313</v>
+        <v>3135</v>
       </c>
       <c r="F132" s="4">
-        <v>1014</v>
+        <v>2718</v>
       </c>
       <c r="G132" s="4">
-        <v>1445</v>
+        <v>4114</v>
       </c>
       <c r="H132" s="4">
-        <v>2105</v>
+        <v>6931</v>
       </c>
       <c r="I132" s="4">
-        <v>1756</v>
+        <v>5082</v>
       </c>
       <c r="J132" s="4">
-        <v>1504</v>
+        <v>6643</v>
       </c>
       <c r="K132" s="4">
-        <v>749</v>
+        <v>3254</v>
       </c>
       <c r="L132" s="4">
-        <v>360</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -6130,37 +6118,37 @@
         <v>142</v>
       </c>
       <c r="B133" s="7">
-        <v>23963</v>
+        <v>12455</v>
       </c>
       <c r="C133" s="4">
-        <v>2094</v>
+        <v>899</v>
       </c>
       <c r="D133" s="4">
-        <v>1427</v>
+        <v>586</v>
       </c>
       <c r="E133" s="4">
-        <v>3076</v>
+        <v>1238</v>
       </c>
       <c r="F133" s="4">
-        <v>2514</v>
+        <v>1233</v>
       </c>
       <c r="G133" s="4">
-        <v>3203</v>
+        <v>1811</v>
       </c>
       <c r="H133" s="4">
-        <v>4588</v>
+        <v>2131</v>
       </c>
       <c r="I133" s="4">
-        <v>3051</v>
+        <v>1667</v>
       </c>
       <c r="J133" s="4">
-        <v>2776</v>
+        <v>1608</v>
       </c>
       <c r="K133" s="4">
-        <v>678</v>
+        <v>729</v>
       </c>
       <c r="L133" s="4">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -6168,37 +6156,37 @@
         <v>143</v>
       </c>
       <c r="B134" s="7">
-        <v>14899</v>
+        <v>25643</v>
       </c>
       <c r="C134" s="4">
-        <v>816</v>
+        <v>3045</v>
       </c>
       <c r="D134" s="4">
-        <v>641</v>
+        <v>1776</v>
       </c>
       <c r="E134" s="4">
-        <v>1370</v>
+        <v>3939</v>
       </c>
       <c r="F134" s="4">
-        <v>1399</v>
+        <v>2874</v>
       </c>
       <c r="G134" s="4">
-        <v>1618</v>
+        <v>3353</v>
       </c>
       <c r="H134" s="4">
-        <v>2210</v>
+        <v>4456</v>
       </c>
       <c r="I134" s="4">
-        <v>2184</v>
+        <v>2643</v>
       </c>
       <c r="J134" s="4">
-        <v>2990</v>
+        <v>2391</v>
       </c>
       <c r="K134" s="4">
-        <v>898</v>
+        <v>607</v>
       </c>
       <c r="L134" s="4">
-        <v>773</v>
+        <v>559</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -6206,37 +6194,37 @@
         <v>144</v>
       </c>
       <c r="B135" s="7">
-        <v>10629</v>
+        <v>7749</v>
       </c>
       <c r="C135" s="4">
-        <v>648</v>
+        <v>295</v>
       </c>
       <c r="D135" s="4">
-        <v>551</v>
+        <v>178</v>
       </c>
       <c r="E135" s="4">
-        <v>840</v>
+        <v>780</v>
       </c>
       <c r="F135" s="4">
-        <v>970</v>
+        <v>712</v>
       </c>
       <c r="G135" s="4">
-        <v>1619</v>
+        <v>1301</v>
       </c>
       <c r="H135" s="4">
-        <v>2438</v>
+        <v>1599</v>
       </c>
       <c r="I135" s="4">
-        <v>1591</v>
+        <v>1038</v>
       </c>
       <c r="J135" s="4">
-        <v>1211</v>
+        <v>1083</v>
       </c>
       <c r="K135" s="4">
-        <v>510</v>
+        <v>434</v>
       </c>
       <c r="L135" s="4">
-        <v>251</v>
+        <v>329</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -6244,37 +6232,37 @@
         <v>145</v>
       </c>
       <c r="B136" s="7">
-        <v>38771</v>
+        <v>10253</v>
       </c>
       <c r="C136" s="4">
-        <v>2535</v>
+        <v>600</v>
       </c>
       <c r="D136" s="4">
-        <v>1437</v>
+        <v>259</v>
       </c>
       <c r="E136" s="4">
-        <v>3135</v>
+        <v>857</v>
       </c>
       <c r="F136" s="4">
-        <v>2718</v>
+        <v>762</v>
       </c>
       <c r="G136" s="4">
-        <v>4114</v>
+        <v>1221</v>
       </c>
       <c r="H136" s="4">
-        <v>6931</v>
+        <v>1770</v>
       </c>
       <c r="I136" s="4">
-        <v>5082</v>
+        <v>1238</v>
       </c>
       <c r="J136" s="4">
-        <v>6643</v>
+        <v>1926</v>
       </c>
       <c r="K136" s="4">
-        <v>3254</v>
+        <v>985</v>
       </c>
       <c r="L136" s="4">
-        <v>2922</v>
+        <v>635</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -6282,37 +6270,37 @@
         <v>146</v>
       </c>
       <c r="B137" s="7">
-        <v>12455</v>
+        <v>11544</v>
       </c>
       <c r="C137" s="4">
-        <v>899</v>
+        <v>336</v>
       </c>
       <c r="D137" s="4">
-        <v>586</v>
+        <v>295</v>
       </c>
       <c r="E137" s="4">
-        <v>1238</v>
+        <v>945</v>
       </c>
       <c r="F137" s="4">
-        <v>1233</v>
+        <v>780</v>
       </c>
       <c r="G137" s="4">
-        <v>1811</v>
+        <v>1215</v>
       </c>
       <c r="H137" s="4">
-        <v>2131</v>
+        <v>1844</v>
       </c>
       <c r="I137" s="4">
-        <v>1667</v>
+        <v>1598</v>
       </c>
       <c r="J137" s="4">
-        <v>1608</v>
+        <v>2394</v>
       </c>
       <c r="K137" s="4">
-        <v>729</v>
+        <v>1129</v>
       </c>
       <c r="L137" s="4">
-        <v>553</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
@@ -6320,37 +6308,37 @@
         <v>147</v>
       </c>
       <c r="B138" s="7">
-        <v>25643</v>
+        <v>17877</v>
       </c>
       <c r="C138" s="4">
-        <v>3045</v>
+        <v>1454</v>
       </c>
       <c r="D138" s="4">
-        <v>1776</v>
+        <v>748</v>
       </c>
       <c r="E138" s="4">
-        <v>3939</v>
+        <v>1449</v>
       </c>
       <c r="F138" s="4">
-        <v>2874</v>
+        <v>2476</v>
       </c>
       <c r="G138" s="4">
-        <v>3353</v>
+        <v>2073</v>
       </c>
       <c r="H138" s="4">
-        <v>4456</v>
+        <v>2881</v>
       </c>
       <c r="I138" s="4">
-        <v>2643</v>
+        <v>2059</v>
       </c>
       <c r="J138" s="4">
-        <v>2391</v>
+        <v>2607</v>
       </c>
       <c r="K138" s="4">
-        <v>607</v>
+        <v>1189</v>
       </c>
       <c r="L138" s="4">
-        <v>559</v>
+        <v>941</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -6358,37 +6346,37 @@
         <v>148</v>
       </c>
       <c r="B139" s="7">
-        <v>7749</v>
+        <v>8870</v>
       </c>
       <c r="C139" s="4">
-        <v>295</v>
+        <v>883</v>
       </c>
       <c r="D139" s="4">
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="E139" s="4">
-        <v>780</v>
+        <v>763</v>
       </c>
       <c r="F139" s="4">
-        <v>712</v>
+        <v>827</v>
       </c>
       <c r="G139" s="4">
-        <v>1301</v>
+        <v>1146</v>
       </c>
       <c r="H139" s="4">
-        <v>1599</v>
+        <v>1583</v>
       </c>
       <c r="I139" s="4">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="J139" s="4">
-        <v>1083</v>
+        <v>1453</v>
       </c>
       <c r="K139" s="4">
-        <v>434</v>
+        <v>476</v>
       </c>
       <c r="L139" s="4">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -6396,37 +6384,37 @@
         <v>149</v>
       </c>
       <c r="B140" s="7">
-        <v>10253</v>
+        <v>6384</v>
       </c>
       <c r="C140" s="4">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="D140" s="4">
-        <v>259</v>
+        <v>208</v>
       </c>
       <c r="E140" s="4">
-        <v>857</v>
+        <v>659</v>
       </c>
       <c r="F140" s="4">
-        <v>762</v>
+        <v>830</v>
       </c>
       <c r="G140" s="4">
-        <v>1221</v>
+        <v>886</v>
       </c>
       <c r="H140" s="4">
-        <v>1770</v>
+        <v>1387</v>
       </c>
       <c r="I140" s="4">
-        <v>1238</v>
+        <v>822</v>
       </c>
       <c r="J140" s="4">
-        <v>1926</v>
+        <v>734</v>
       </c>
       <c r="K140" s="4">
-        <v>985</v>
+        <v>198</v>
       </c>
       <c r="L140" s="4">
-        <v>635</v>
+        <v>280</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -6434,37 +6422,37 @@
         <v>150</v>
       </c>
       <c r="B141" s="7">
-        <v>11544</v>
+        <v>9489</v>
       </c>
       <c r="C141" s="4">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="D141" s="4">
-        <v>295</v>
+        <v>219</v>
       </c>
       <c r="E141" s="4">
-        <v>945</v>
+        <v>880</v>
       </c>
       <c r="F141" s="4">
-        <v>780</v>
+        <v>723</v>
       </c>
       <c r="G141" s="4">
-        <v>1215</v>
+        <v>1261</v>
       </c>
       <c r="H141" s="4">
-        <v>1844</v>
+        <v>1700</v>
       </c>
       <c r="I141" s="4">
-        <v>1598</v>
+        <v>1188</v>
       </c>
       <c r="J141" s="4">
-        <v>2394</v>
+        <v>1590</v>
       </c>
       <c r="K141" s="4">
-        <v>1129</v>
+        <v>725</v>
       </c>
       <c r="L141" s="4">
-        <v>1008</v>
+        <v>832</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
@@ -6472,37 +6460,37 @@
         <v>151</v>
       </c>
       <c r="B142" s="7">
-        <v>17877</v>
+        <v>13557</v>
       </c>
       <c r="C142" s="4">
-        <v>1454</v>
+        <v>674</v>
       </c>
       <c r="D142" s="4">
-        <v>748</v>
+        <v>517</v>
       </c>
       <c r="E142" s="4">
-        <v>1449</v>
+        <v>1372</v>
       </c>
       <c r="F142" s="4">
-        <v>2476</v>
+        <v>1284</v>
       </c>
       <c r="G142" s="4">
-        <v>2073</v>
+        <v>2027</v>
       </c>
       <c r="H142" s="4">
-        <v>2881</v>
+        <v>2704</v>
       </c>
       <c r="I142" s="4">
-        <v>2059</v>
+        <v>1582</v>
       </c>
       <c r="J142" s="4">
-        <v>2607</v>
+        <v>2280</v>
       </c>
       <c r="K142" s="4">
-        <v>1189</v>
+        <v>842</v>
       </c>
       <c r="L142" s="4">
-        <v>941</v>
+        <v>275</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
@@ -6510,37 +6498,37 @@
         <v>152</v>
       </c>
       <c r="B143" s="7">
-        <v>8870</v>
+        <v>13265</v>
       </c>
       <c r="C143" s="4">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="D143" s="4">
-        <v>356</v>
+        <v>626</v>
       </c>
       <c r="E143" s="4">
-        <v>763</v>
+        <v>1307</v>
       </c>
       <c r="F143" s="4">
-        <v>827</v>
+        <v>1123</v>
       </c>
       <c r="G143" s="4">
-        <v>1146</v>
+        <v>1798</v>
       </c>
       <c r="H143" s="4">
-        <v>1583</v>
+        <v>2334</v>
       </c>
       <c r="I143" s="4">
-        <v>1042</v>
+        <v>1738</v>
       </c>
       <c r="J143" s="4">
-        <v>1453</v>
+        <v>2143</v>
       </c>
       <c r="K143" s="4">
-        <v>476</v>
+        <v>831</v>
       </c>
       <c r="L143" s="4">
-        <v>341</v>
+        <v>491</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
@@ -6548,37 +6536,37 @@
         <v>153</v>
       </c>
       <c r="B144" s="7">
-        <v>6384</v>
+        <v>11797</v>
       </c>
       <c r="C144" s="4">
-        <v>380</v>
+        <v>1422</v>
       </c>
       <c r="D144" s="4">
-        <v>208</v>
+        <v>766</v>
       </c>
       <c r="E144" s="4">
-        <v>659</v>
+        <v>1256</v>
       </c>
       <c r="F144" s="4">
-        <v>830</v>
+        <v>1167</v>
       </c>
       <c r="G144" s="4">
-        <v>886</v>
+        <v>1195</v>
       </c>
       <c r="H144" s="4">
-        <v>1387</v>
+        <v>2087</v>
       </c>
       <c r="I144" s="4">
-        <v>822</v>
+        <v>1400</v>
       </c>
       <c r="J144" s="4">
-        <v>734</v>
+        <v>1589</v>
       </c>
       <c r="K144" s="4">
-        <v>198</v>
+        <v>547</v>
       </c>
       <c r="L144" s="4">
-        <v>280</v>
+        <v>368</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -6586,37 +6574,37 @@
         <v>154</v>
       </c>
       <c r="B145" s="7">
-        <v>9489</v>
+        <v>6582</v>
       </c>
       <c r="C145" s="4">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="D145" s="4">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="E145" s="4">
-        <v>880</v>
+        <v>524</v>
       </c>
       <c r="F145" s="4">
-        <v>723</v>
+        <v>581</v>
       </c>
       <c r="G145" s="4">
-        <v>1261</v>
+        <v>952</v>
       </c>
       <c r="H145" s="4">
-        <v>1700</v>
+        <v>942</v>
       </c>
       <c r="I145" s="4">
-        <v>1188</v>
+        <v>1068</v>
       </c>
       <c r="J145" s="4">
-        <v>1590</v>
+        <v>1010</v>
       </c>
       <c r="K145" s="4">
-        <v>725</v>
+        <v>446</v>
       </c>
       <c r="L145" s="4">
-        <v>832</v>
+        <v>411</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -6624,37 +6612,37 @@
         <v>155</v>
       </c>
       <c r="B146" s="7">
-        <v>13557</v>
+        <v>17140</v>
       </c>
       <c r="C146" s="4">
-        <v>674</v>
+        <v>1047</v>
       </c>
       <c r="D146" s="4">
-        <v>517</v>
+        <v>677</v>
       </c>
       <c r="E146" s="4">
-        <v>1372</v>
+        <v>1824</v>
       </c>
       <c r="F146" s="4">
-        <v>1284</v>
+        <v>1536</v>
       </c>
       <c r="G146" s="4">
-        <v>2027</v>
+        <v>2546</v>
       </c>
       <c r="H146" s="4">
-        <v>2704</v>
+        <v>3214</v>
       </c>
       <c r="I146" s="4">
-        <v>1582</v>
+        <v>2339</v>
       </c>
       <c r="J146" s="4">
-        <v>2280</v>
+        <v>2231</v>
       </c>
       <c r="K146" s="4">
-        <v>842</v>
+        <v>1104</v>
       </c>
       <c r="L146" s="4">
-        <v>275</v>
+        <v>622</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -6662,37 +6650,37 @@
         <v>156</v>
       </c>
       <c r="B147" s="7">
-        <v>13265</v>
+        <v>17535</v>
       </c>
       <c r="C147" s="4">
-        <v>874</v>
+        <v>1010</v>
       </c>
       <c r="D147" s="4">
-        <v>626</v>
+        <v>731</v>
       </c>
       <c r="E147" s="4">
-        <v>1307</v>
+        <v>1697</v>
       </c>
       <c r="F147" s="4">
-        <v>1123</v>
+        <v>1834</v>
       </c>
       <c r="G147" s="4">
-        <v>1798</v>
+        <v>2295</v>
       </c>
       <c r="H147" s="4">
-        <v>2334</v>
+        <v>3573</v>
       </c>
       <c r="I147" s="4">
-        <v>1738</v>
+        <v>2556</v>
       </c>
       <c r="J147" s="4">
-        <v>2143</v>
+        <v>2367</v>
       </c>
       <c r="K147" s="4">
-        <v>831</v>
+        <v>985</v>
       </c>
       <c r="L147" s="4">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -6700,37 +6688,37 @@
         <v>157</v>
       </c>
       <c r="B148" s="7">
-        <v>11797</v>
+        <v>9997</v>
       </c>
       <c r="C148" s="4">
-        <v>1422</v>
+        <v>442</v>
       </c>
       <c r="D148" s="4">
-        <v>766</v>
+        <v>399</v>
       </c>
       <c r="E148" s="4">
-        <v>1256</v>
+        <v>914</v>
       </c>
       <c r="F148" s="4">
-        <v>1167</v>
+        <v>717</v>
       </c>
       <c r="G148" s="4">
-        <v>1195</v>
+        <v>1395</v>
       </c>
       <c r="H148" s="4">
-        <v>2087</v>
+        <v>2288</v>
       </c>
       <c r="I148" s="4">
-        <v>1400</v>
+        <v>1271</v>
       </c>
       <c r="J148" s="4">
-        <v>1589</v>
+        <v>1461</v>
       </c>
       <c r="K148" s="4">
-        <v>547</v>
+        <v>787</v>
       </c>
       <c r="L148" s="4">
-        <v>368</v>
+        <v>323</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -6738,37 +6726,37 @@
         <v>158</v>
       </c>
       <c r="B149" s="7">
-        <v>6582</v>
+        <v>22031</v>
       </c>
       <c r="C149" s="4">
-        <v>413</v>
+        <v>1101</v>
       </c>
       <c r="D149" s="4">
-        <v>235</v>
+        <v>803</v>
       </c>
       <c r="E149" s="4">
-        <v>524</v>
+        <v>2321</v>
       </c>
       <c r="F149" s="4">
-        <v>581</v>
+        <v>2490</v>
       </c>
       <c r="G149" s="4">
-        <v>952</v>
+        <v>2785</v>
       </c>
       <c r="H149" s="4">
-        <v>942</v>
+        <v>4141</v>
       </c>
       <c r="I149" s="4">
-        <v>1068</v>
+        <v>3074</v>
       </c>
       <c r="J149" s="4">
-        <v>1010</v>
+        <v>3253</v>
       </c>
       <c r="K149" s="4">
-        <v>446</v>
+        <v>1189</v>
       </c>
       <c r="L149" s="4">
-        <v>411</v>
+        <v>874</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -6776,37 +6764,37 @@
         <v>159</v>
       </c>
       <c r="B150" s="7">
-        <v>17140</v>
+        <v>6837</v>
       </c>
       <c r="C150" s="4">
-        <v>1047</v>
+        <v>512</v>
       </c>
       <c r="D150" s="4">
-        <v>677</v>
+        <v>292</v>
       </c>
       <c r="E150" s="4">
-        <v>1824</v>
+        <v>473</v>
       </c>
       <c r="F150" s="4">
-        <v>1536</v>
+        <v>443</v>
       </c>
       <c r="G150" s="4">
-        <v>2546</v>
+        <v>886</v>
       </c>
       <c r="H150" s="4">
-        <v>3214</v>
+        <v>1437</v>
       </c>
       <c r="I150" s="4">
-        <v>2339</v>
+        <v>962</v>
       </c>
       <c r="J150" s="4">
-        <v>2231</v>
+        <v>1332</v>
       </c>
       <c r="K150" s="4">
-        <v>1104</v>
+        <v>304</v>
       </c>
       <c r="L150" s="4">
-        <v>622</v>
+        <v>196</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -6814,37 +6802,37 @@
         <v>160</v>
       </c>
       <c r="B151" s="7">
-        <v>17535</v>
+        <v>11261</v>
       </c>
       <c r="C151" s="4">
-        <v>1010</v>
+        <v>433</v>
       </c>
       <c r="D151" s="4">
-        <v>731</v>
+        <v>532</v>
       </c>
       <c r="E151" s="4">
-        <v>1697</v>
+        <v>925</v>
       </c>
       <c r="F151" s="4">
+        <v>967</v>
+      </c>
+      <c r="G151" s="4">
+        <v>1503</v>
+      </c>
+      <c r="H151" s="4">
+        <v>1881</v>
+      </c>
+      <c r="I151" s="4">
         <v>1834</v>
       </c>
-      <c r="G151" s="4">
-        <v>2295</v>
-      </c>
-      <c r="H151" s="4">
-        <v>3573</v>
-      </c>
-      <c r="I151" s="4">
-        <v>2556</v>
-      </c>
       <c r="J151" s="4">
-        <v>2367</v>
+        <v>1705</v>
       </c>
       <c r="K151" s="4">
-        <v>985</v>
+        <v>735</v>
       </c>
       <c r="L151" s="4">
-        <v>487</v>
+        <v>746</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -6852,37 +6840,37 @@
         <v>161</v>
       </c>
       <c r="B152" s="7">
-        <v>9997</v>
+        <v>11235</v>
       </c>
       <c r="C152" s="4">
-        <v>442</v>
+        <v>648</v>
       </c>
       <c r="D152" s="4">
-        <v>399</v>
+        <v>317</v>
       </c>
       <c r="E152" s="4">
-        <v>914</v>
+        <v>954</v>
       </c>
       <c r="F152" s="4">
-        <v>717</v>
+        <v>867</v>
       </c>
       <c r="G152" s="4">
-        <v>1395</v>
+        <v>985</v>
       </c>
       <c r="H152" s="4">
-        <v>2288</v>
+        <v>1920</v>
       </c>
       <c r="I152" s="4">
-        <v>1271</v>
+        <v>1798</v>
       </c>
       <c r="J152" s="4">
-        <v>1461</v>
+        <v>2411</v>
       </c>
       <c r="K152" s="4">
-        <v>787</v>
+        <v>675</v>
       </c>
       <c r="L152" s="4">
-        <v>323</v>
+        <v>660</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -6890,37 +6878,37 @@
         <v>162</v>
       </c>
       <c r="B153" s="7">
-        <v>22031</v>
+        <v>9677</v>
       </c>
       <c r="C153" s="4">
-        <v>1101</v>
+        <v>350</v>
       </c>
       <c r="D153" s="4">
-        <v>803</v>
+        <v>245</v>
       </c>
       <c r="E153" s="4">
-        <v>2321</v>
+        <v>761</v>
       </c>
       <c r="F153" s="4">
-        <v>2490</v>
+        <v>723</v>
       </c>
       <c r="G153" s="4">
-        <v>2785</v>
+        <v>799</v>
       </c>
       <c r="H153" s="4">
-        <v>4141</v>
+        <v>1322</v>
       </c>
       <c r="I153" s="4">
-        <v>3074</v>
+        <v>1463</v>
       </c>
       <c r="J153" s="4">
-        <v>3253</v>
+        <v>2076</v>
       </c>
       <c r="K153" s="4">
-        <v>1189</v>
+        <v>818</v>
       </c>
       <c r="L153" s="4">
-        <v>874</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -6928,37 +6916,37 @@
         <v>163</v>
       </c>
       <c r="B154" s="7">
-        <v>6837</v>
+        <v>16043</v>
       </c>
       <c r="C154" s="4">
-        <v>512</v>
+        <v>619</v>
       </c>
       <c r="D154" s="4">
-        <v>292</v>
+        <v>422</v>
       </c>
       <c r="E154" s="4">
-        <v>473</v>
+        <v>1362</v>
       </c>
       <c r="F154" s="4">
-        <v>443</v>
+        <v>1215</v>
       </c>
       <c r="G154" s="4">
-        <v>886</v>
+        <v>1824</v>
       </c>
       <c r="H154" s="4">
-        <v>1437</v>
+        <v>2415</v>
       </c>
       <c r="I154" s="4">
-        <v>962</v>
+        <v>2362</v>
       </c>
       <c r="J154" s="4">
-        <v>1332</v>
+        <v>3236</v>
       </c>
       <c r="K154" s="4">
-        <v>304</v>
+        <v>1591</v>
       </c>
       <c r="L154" s="4">
-        <v>196</v>
+        <v>997</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -6966,37 +6954,37 @@
         <v>164</v>
       </c>
       <c r="B155" s="7">
-        <v>11261</v>
+        <v>7182</v>
       </c>
       <c r="C155" s="4">
-        <v>433</v>
+        <v>269</v>
       </c>
       <c r="D155" s="4">
+        <v>381</v>
+      </c>
+      <c r="E155" s="4">
         <v>532</v>
       </c>
-      <c r="E155" s="4">
-        <v>925</v>
-      </c>
       <c r="F155" s="4">
-        <v>967</v>
+        <v>643</v>
       </c>
       <c r="G155" s="4">
-        <v>1503</v>
+        <v>646</v>
       </c>
       <c r="H155" s="4">
-        <v>1881</v>
+        <v>1303</v>
       </c>
       <c r="I155" s="4">
-        <v>1834</v>
+        <v>1098</v>
       </c>
       <c r="J155" s="4">
-        <v>1705</v>
+        <v>1364</v>
       </c>
       <c r="K155" s="4">
-        <v>735</v>
+        <v>580</v>
       </c>
       <c r="L155" s="4">
-        <v>746</v>
+        <v>366</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -7004,37 +6992,37 @@
         <v>165</v>
       </c>
       <c r="B156" s="7">
-        <v>11235</v>
+        <v>11627</v>
       </c>
       <c r="C156" s="4">
-        <v>648</v>
+        <v>1385</v>
       </c>
       <c r="D156" s="4">
-        <v>317</v>
+        <v>851</v>
       </c>
       <c r="E156" s="4">
-        <v>954</v>
+        <v>1365</v>
       </c>
       <c r="F156" s="4">
-        <v>867</v>
+        <v>1098</v>
       </c>
       <c r="G156" s="4">
-        <v>985</v>
+        <v>1639</v>
       </c>
       <c r="H156" s="4">
-        <v>1920</v>
+        <v>2087</v>
       </c>
       <c r="I156" s="4">
-        <v>1798</v>
+        <v>1141</v>
       </c>
       <c r="J156" s="4">
-        <v>2411</v>
+        <v>1317</v>
       </c>
       <c r="K156" s="4">
-        <v>675</v>
+        <v>501</v>
       </c>
       <c r="L156" s="4">
-        <v>660</v>
+        <v>243</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -7042,37 +7030,37 @@
         <v>166</v>
       </c>
       <c r="B157" s="7">
-        <v>9677</v>
+        <v>9939</v>
       </c>
       <c r="C157" s="4">
-        <v>350</v>
+        <v>645</v>
       </c>
       <c r="D157" s="4">
-        <v>245</v>
+        <v>450</v>
       </c>
       <c r="E157" s="4">
-        <v>761</v>
+        <v>949</v>
       </c>
       <c r="F157" s="4">
-        <v>723</v>
+        <v>1028</v>
       </c>
       <c r="G157" s="4">
-        <v>799</v>
+        <v>1802</v>
       </c>
       <c r="H157" s="4">
-        <v>1322</v>
+        <v>1997</v>
       </c>
       <c r="I157" s="4">
-        <v>1463</v>
+        <v>1473</v>
       </c>
       <c r="J157" s="4">
-        <v>2076</v>
+        <v>886</v>
       </c>
       <c r="K157" s="4">
-        <v>818</v>
+        <v>600</v>
       </c>
       <c r="L157" s="4">
-        <v>1120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -7080,37 +7068,37 @@
         <v>167</v>
       </c>
       <c r="B158" s="7">
-        <v>16043</v>
+        <v>6273</v>
       </c>
       <c r="C158" s="4">
-        <v>619</v>
+        <v>376</v>
       </c>
       <c r="D158" s="4">
-        <v>422</v>
+        <v>354</v>
       </c>
       <c r="E158" s="4">
-        <v>1362</v>
+        <v>441</v>
       </c>
       <c r="F158" s="4">
-        <v>1215</v>
+        <v>727</v>
       </c>
       <c r="G158" s="4">
-        <v>1824</v>
+        <v>742</v>
       </c>
       <c r="H158" s="4">
-        <v>2415</v>
+        <v>1146</v>
       </c>
       <c r="I158" s="4">
-        <v>2362</v>
+        <v>642</v>
       </c>
       <c r="J158" s="4">
-        <v>3236</v>
+        <v>1194</v>
       </c>
       <c r="K158" s="4">
-        <v>1591</v>
+        <v>421</v>
       </c>
       <c r="L158" s="4">
-        <v>997</v>
+        <v>230</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -7118,37 +7106,37 @@
         <v>168</v>
       </c>
       <c r="B159" s="7">
-        <v>7182</v>
+        <v>15308</v>
       </c>
       <c r="C159" s="4">
-        <v>269</v>
+        <v>720</v>
       </c>
       <c r="D159" s="4">
-        <v>381</v>
+        <v>304</v>
       </c>
       <c r="E159" s="4">
-        <v>532</v>
+        <v>1293</v>
       </c>
       <c r="F159" s="4">
-        <v>643</v>
+        <v>1319</v>
       </c>
       <c r="G159" s="4">
-        <v>646</v>
+        <v>1859</v>
       </c>
       <c r="H159" s="4">
-        <v>1303</v>
+        <v>2665</v>
       </c>
       <c r="I159" s="4">
-        <v>1098</v>
+        <v>2295</v>
       </c>
       <c r="J159" s="4">
-        <v>1364</v>
+        <v>3057</v>
       </c>
       <c r="K159" s="4">
-        <v>580</v>
+        <v>1180</v>
       </c>
       <c r="L159" s="4">
-        <v>366</v>
+        <v>616</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -7156,37 +7144,37 @@
         <v>169</v>
       </c>
       <c r="B160" s="7">
-        <v>11627</v>
+        <v>15700</v>
       </c>
       <c r="C160" s="4">
-        <v>1385</v>
+        <v>1598</v>
       </c>
       <c r="D160" s="4">
-        <v>851</v>
+        <v>991</v>
       </c>
       <c r="E160" s="4">
-        <v>1365</v>
+        <v>2299</v>
       </c>
       <c r="F160" s="4">
-        <v>1098</v>
+        <v>2038</v>
       </c>
       <c r="G160" s="4">
-        <v>1639</v>
+        <v>2484</v>
       </c>
       <c r="H160" s="4">
-        <v>2087</v>
+        <v>2811</v>
       </c>
       <c r="I160" s="4">
-        <v>1141</v>
+        <v>1633</v>
       </c>
       <c r="J160" s="4">
-        <v>1317</v>
+        <v>1225</v>
       </c>
       <c r="K160" s="4">
-        <v>501</v>
+        <v>314</v>
       </c>
       <c r="L160" s="4">
-        <v>243</v>
+        <v>307</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -7194,37 +7182,37 @@
         <v>170</v>
       </c>
       <c r="B161" s="7">
-        <v>9939</v>
+        <v>10364</v>
       </c>
       <c r="C161" s="4">
-        <v>645</v>
+        <v>585</v>
       </c>
       <c r="D161" s="4">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="E161" s="4">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F161" s="4">
-        <v>1028</v>
+        <v>955</v>
       </c>
       <c r="G161" s="4">
-        <v>1802</v>
+        <v>1325</v>
       </c>
       <c r="H161" s="4">
-        <v>1997</v>
+        <v>2228</v>
       </c>
       <c r="I161" s="4">
-        <v>1473</v>
+        <v>1491</v>
       </c>
       <c r="J161" s="4">
-        <v>886</v>
+        <v>1508</v>
       </c>
       <c r="K161" s="4">
-        <v>600</v>
+        <v>464</v>
       </c>
       <c r="L161" s="4">
-        <v>109</v>
+        <v>426</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -7232,37 +7220,37 @@
         <v>171</v>
       </c>
       <c r="B162" s="7">
-        <v>6273</v>
+        <v>5553</v>
       </c>
       <c r="C162" s="4">
-        <v>376</v>
+        <v>206</v>
       </c>
       <c r="D162" s="4">
-        <v>354</v>
+        <v>146</v>
       </c>
       <c r="E162" s="4">
-        <v>441</v>
+        <v>225</v>
       </c>
       <c r="F162" s="4">
-        <v>727</v>
+        <v>378</v>
       </c>
       <c r="G162" s="4">
-        <v>742</v>
+        <v>610</v>
       </c>
       <c r="H162" s="4">
-        <v>1146</v>
+        <v>1049</v>
       </c>
       <c r="I162" s="4">
-        <v>642</v>
+        <v>932</v>
       </c>
       <c r="J162" s="4">
-        <v>1194</v>
+        <v>1407</v>
       </c>
       <c r="K162" s="4">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L162" s="4">
-        <v>230</v>
+        <v>169</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -7270,37 +7258,37 @@
         <v>172</v>
       </c>
       <c r="B163" s="7">
-        <v>15308</v>
+        <v>7896</v>
       </c>
       <c r="C163" s="4">
-        <v>720</v>
+        <v>182</v>
       </c>
       <c r="D163" s="4">
-        <v>304</v>
+        <v>157</v>
       </c>
       <c r="E163" s="4">
-        <v>1293</v>
+        <v>255</v>
       </c>
       <c r="F163" s="4">
-        <v>1319</v>
+        <v>591</v>
       </c>
       <c r="G163" s="4">
-        <v>1859</v>
+        <v>962</v>
       </c>
       <c r="H163" s="4">
-        <v>2665</v>
+        <v>1107</v>
       </c>
       <c r="I163" s="4">
-        <v>2295</v>
+        <v>1436</v>
       </c>
       <c r="J163" s="4">
-        <v>3057</v>
+        <v>1851</v>
       </c>
       <c r="K163" s="4">
-        <v>1180</v>
+        <v>912</v>
       </c>
       <c r="L163" s="4">
-        <v>616</v>
+        <v>443</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
@@ -7308,37 +7296,37 @@
         <v>173</v>
       </c>
       <c r="B164" s="7">
-        <v>15700</v>
+        <v>6337</v>
       </c>
       <c r="C164" s="4">
-        <v>1598</v>
+        <v>156</v>
       </c>
       <c r="D164" s="4">
-        <v>991</v>
+        <v>130</v>
       </c>
       <c r="E164" s="4">
-        <v>2299</v>
+        <v>296</v>
       </c>
       <c r="F164" s="4">
-        <v>2038</v>
+        <v>508</v>
       </c>
       <c r="G164" s="4">
-        <v>2484</v>
+        <v>563</v>
       </c>
       <c r="H164" s="4">
-        <v>2811</v>
+        <v>1295</v>
       </c>
       <c r="I164" s="4">
-        <v>1633</v>
+        <v>996</v>
       </c>
       <c r="J164" s="4">
-        <v>1225</v>
+        <v>1311</v>
       </c>
       <c r="K164" s="4">
-        <v>314</v>
+        <v>776</v>
       </c>
       <c r="L164" s="4">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -7346,37 +7334,37 @@
         <v>174</v>
       </c>
       <c r="B165" s="7">
-        <v>10364</v>
+        <v>16048</v>
       </c>
       <c r="C165" s="4">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D165" s="4">
-        <v>435</v>
+        <v>519</v>
       </c>
       <c r="E165" s="4">
-        <v>947</v>
+        <v>1238</v>
       </c>
       <c r="F165" s="4">
-        <v>955</v>
+        <v>1065</v>
       </c>
       <c r="G165" s="4">
-        <v>1325</v>
+        <v>1860</v>
       </c>
       <c r="H165" s="4">
-        <v>2228</v>
+        <v>3202</v>
       </c>
       <c r="I165" s="4">
-        <v>1491</v>
+        <v>2479</v>
       </c>
       <c r="J165" s="4">
-        <v>1508</v>
+        <v>3197</v>
       </c>
       <c r="K165" s="4">
-        <v>464</v>
+        <v>1303</v>
       </c>
       <c r="L165" s="4">
-        <v>426</v>
+        <v>605</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -7384,37 +7372,37 @@
         <v>175</v>
       </c>
       <c r="B166" s="7">
-        <v>5553</v>
+        <v>8110</v>
       </c>
       <c r="C166" s="4">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="D166" s="4">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E166" s="4">
-        <v>225</v>
+        <v>455</v>
       </c>
       <c r="F166" s="4">
-        <v>378</v>
+        <v>536</v>
       </c>
       <c r="G166" s="4">
-        <v>610</v>
+        <v>1004</v>
       </c>
       <c r="H166" s="4">
-        <v>1049</v>
+        <v>1596</v>
       </c>
       <c r="I166" s="4">
-        <v>932</v>
+        <v>1149</v>
       </c>
       <c r="J166" s="4">
-        <v>1407</v>
+        <v>1679</v>
       </c>
       <c r="K166" s="4">
-        <v>431</v>
+        <v>737</v>
       </c>
       <c r="L166" s="4">
-        <v>169</v>
+        <v>538</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -7422,37 +7410,37 @@
         <v>176</v>
       </c>
       <c r="B167" s="7">
-        <v>7896</v>
+        <v>9167</v>
       </c>
       <c r="C167" s="4">
-        <v>182</v>
+        <v>380</v>
       </c>
       <c r="D167" s="4">
-        <v>157</v>
+        <v>379</v>
       </c>
       <c r="E167" s="4">
-        <v>255</v>
+        <v>679</v>
       </c>
       <c r="F167" s="4">
-        <v>591</v>
+        <v>886</v>
       </c>
       <c r="G167" s="4">
-        <v>962</v>
+        <v>857</v>
       </c>
       <c r="H167" s="4">
-        <v>1107</v>
+        <v>1351</v>
       </c>
       <c r="I167" s="4">
-        <v>1436</v>
+        <v>1334</v>
       </c>
       <c r="J167" s="4">
-        <v>1851</v>
+        <v>1874</v>
       </c>
       <c r="K167" s="4">
-        <v>912</v>
+        <v>924</v>
       </c>
       <c r="L167" s="4">
-        <v>443</v>
+        <v>503</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
@@ -7460,75 +7448,75 @@
         <v>177</v>
       </c>
       <c r="B168" s="7">
-        <v>6337</v>
+        <v>7891</v>
       </c>
       <c r="C168" s="4">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="D168" s="4">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="E168" s="4">
-        <v>296</v>
+        <v>510</v>
       </c>
       <c r="F168" s="4">
-        <v>508</v>
+        <v>481</v>
       </c>
       <c r="G168" s="4">
-        <v>563</v>
+        <v>1021</v>
       </c>
       <c r="H168" s="4">
-        <v>1295</v>
+        <v>1351</v>
       </c>
       <c r="I168" s="4">
-        <v>996</v>
+        <v>1258</v>
       </c>
       <c r="J168" s="4">
-        <v>1311</v>
+        <v>1775</v>
       </c>
       <c r="K168" s="4">
-        <v>776</v>
+        <v>689</v>
       </c>
       <c r="L168" s="4">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>178</v>
       </c>
       <c r="B169" s="7">
-        <v>16048</v>
+        <v>11319</v>
       </c>
       <c r="C169" s="4">
-        <v>580</v>
+        <v>407</v>
       </c>
       <c r="D169" s="4">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="E169" s="4">
-        <v>1238</v>
+        <v>982</v>
       </c>
       <c r="F169" s="4">
-        <v>1065</v>
+        <v>846</v>
       </c>
       <c r="G169" s="4">
-        <v>1860</v>
+        <v>1143</v>
       </c>
       <c r="H169" s="4">
-        <v>3202</v>
+        <v>1776</v>
       </c>
       <c r="I169" s="4">
-        <v>2479</v>
+        <v>1736</v>
       </c>
       <c r="J169" s="4">
-        <v>3197</v>
+        <v>2123</v>
       </c>
       <c r="K169" s="4">
-        <v>1303</v>
+        <v>913</v>
       </c>
       <c r="L169" s="4">
-        <v>605</v>
+        <v>896</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -7536,37 +7524,37 @@
         <v>179</v>
       </c>
       <c r="B170" s="7">
-        <v>8110</v>
+        <v>12157</v>
       </c>
       <c r="C170" s="4">
-        <v>252</v>
+        <v>2037</v>
       </c>
       <c r="D170" s="4">
-        <v>164</v>
+        <v>831</v>
       </c>
       <c r="E170" s="4">
-        <v>455</v>
+        <v>1238</v>
       </c>
       <c r="F170" s="4">
-        <v>536</v>
+        <v>1521</v>
       </c>
       <c r="G170" s="4">
-        <v>1004</v>
+        <v>1568</v>
       </c>
       <c r="H170" s="4">
-        <v>1596</v>
+        <v>2068</v>
       </c>
       <c r="I170" s="4">
-        <v>1149</v>
+        <v>1158</v>
       </c>
       <c r="J170" s="4">
-        <v>1679</v>
+        <v>1171</v>
       </c>
       <c r="K170" s="4">
-        <v>737</v>
+        <v>346</v>
       </c>
       <c r="L170" s="4">
-        <v>538</v>
+        <v>219</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -7574,37 +7562,37 @@
         <v>180</v>
       </c>
       <c r="B171" s="7">
-        <v>9167</v>
+        <v>16060</v>
       </c>
       <c r="C171" s="4">
-        <v>380</v>
+        <v>3073</v>
       </c>
       <c r="D171" s="4">
-        <v>379</v>
+        <v>1235</v>
       </c>
       <c r="E171" s="4">
-        <v>679</v>
+        <v>1766</v>
       </c>
       <c r="F171" s="4">
-        <v>886</v>
+        <v>1321</v>
       </c>
       <c r="G171" s="4">
-        <v>857</v>
+        <v>1655</v>
       </c>
       <c r="H171" s="4">
-        <v>1351</v>
+        <v>2625</v>
       </c>
       <c r="I171" s="4">
-        <v>1334</v>
+        <v>1634</v>
       </c>
       <c r="J171" s="4">
-        <v>1874</v>
+        <v>1434</v>
       </c>
       <c r="K171" s="4">
-        <v>924</v>
+        <v>606</v>
       </c>
       <c r="L171" s="4">
-        <v>503</v>
+        <v>711</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -7612,113 +7600,113 @@
         <v>181</v>
       </c>
       <c r="B172" s="7">
-        <v>7891</v>
+        <v>9083</v>
       </c>
       <c r="C172" s="4">
-        <v>199</v>
+        <v>284</v>
       </c>
       <c r="D172" s="4">
-        <v>240</v>
+        <v>346</v>
       </c>
       <c r="E172" s="4">
-        <v>510</v>
+        <v>612</v>
       </c>
       <c r="F172" s="4">
-        <v>481</v>
+        <v>426</v>
       </c>
       <c r="G172" s="4">
-        <v>1021</v>
+        <v>759</v>
       </c>
       <c r="H172" s="4">
-        <v>1351</v>
+        <v>1448</v>
       </c>
       <c r="I172" s="4">
-        <v>1258</v>
+        <v>1549</v>
       </c>
       <c r="J172" s="4">
-        <v>1775</v>
+        <v>1968</v>
       </c>
       <c r="K172" s="4">
-        <v>689</v>
+        <v>1124</v>
       </c>
       <c r="L172" s="4">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>182</v>
       </c>
       <c r="B173" s="7">
-        <v>11319</v>
+        <v>7941</v>
       </c>
       <c r="C173" s="4">
-        <v>407</v>
+        <v>824</v>
       </c>
       <c r="D173" s="4">
-        <v>497</v>
+        <v>392</v>
       </c>
       <c r="E173" s="4">
-        <v>982</v>
+        <v>605</v>
       </c>
       <c r="F173" s="4">
-        <v>846</v>
+        <v>908</v>
       </c>
       <c r="G173" s="4">
-        <v>1143</v>
+        <v>1325</v>
       </c>
       <c r="H173" s="4">
-        <v>1776</v>
+        <v>1348</v>
       </c>
       <c r="I173" s="4">
-        <v>1736</v>
+        <v>871</v>
       </c>
       <c r="J173" s="4">
-        <v>2123</v>
+        <v>1110</v>
       </c>
       <c r="K173" s="4">
-        <v>913</v>
+        <v>292</v>
       </c>
       <c r="L173" s="4">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>183</v>
       </c>
       <c r="B174" s="7">
-        <v>12157</v>
+        <v>10025</v>
       </c>
       <c r="C174" s="4">
-        <v>2037</v>
+        <v>976</v>
       </c>
       <c r="D174" s="4">
-        <v>831</v>
+        <v>534</v>
       </c>
       <c r="E174" s="4">
-        <v>1238</v>
+        <v>887</v>
       </c>
       <c r="F174" s="4">
-        <v>1521</v>
+        <v>1093</v>
       </c>
       <c r="G174" s="4">
-        <v>1568</v>
+        <v>1363</v>
       </c>
       <c r="H174" s="4">
-        <v>2068</v>
+        <v>1382</v>
       </c>
       <c r="I174" s="4">
-        <v>1158</v>
+        <v>1254</v>
       </c>
       <c r="J174" s="4">
-        <v>1171</v>
+        <v>1656</v>
       </c>
       <c r="K174" s="4">
-        <v>346</v>
+        <v>589</v>
       </c>
       <c r="L174" s="4">
-        <v>219</v>
+        <v>291</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
@@ -7726,37 +7714,37 @@
         <v>184</v>
       </c>
       <c r="B175" s="7">
-        <v>16060</v>
+        <v>11686</v>
       </c>
       <c r="C175" s="4">
-        <v>3073</v>
+        <v>1835</v>
       </c>
       <c r="D175" s="4">
-        <v>1235</v>
+        <v>744</v>
       </c>
       <c r="E175" s="4">
-        <v>1766</v>
+        <v>1344</v>
       </c>
       <c r="F175" s="4">
-        <v>1321</v>
+        <v>1014</v>
       </c>
       <c r="G175" s="4">
-        <v>1655</v>
+        <v>1242</v>
       </c>
       <c r="H175" s="4">
-        <v>2625</v>
+        <v>1843</v>
       </c>
       <c r="I175" s="4">
-        <v>1634</v>
+        <v>1282</v>
       </c>
       <c r="J175" s="4">
-        <v>1434</v>
+        <v>1516</v>
       </c>
       <c r="K175" s="4">
-        <v>606</v>
+        <v>532</v>
       </c>
       <c r="L175" s="4">
-        <v>711</v>
+        <v>334</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -7764,37 +7752,37 @@
         <v>185</v>
       </c>
       <c r="B176" s="7">
-        <v>9083</v>
+        <v>6369</v>
       </c>
       <c r="C176" s="4">
-        <v>284</v>
+        <v>784</v>
       </c>
       <c r="D176" s="4">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="E176" s="4">
-        <v>612</v>
+        <v>484</v>
       </c>
       <c r="F176" s="4">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G176" s="4">
-        <v>759</v>
+        <v>649</v>
       </c>
       <c r="H176" s="4">
-        <v>1448</v>
+        <v>1056</v>
       </c>
       <c r="I176" s="4">
-        <v>1549</v>
+        <v>940</v>
       </c>
       <c r="J176" s="4">
-        <v>1968</v>
+        <v>921</v>
       </c>
       <c r="K176" s="4">
-        <v>1124</v>
+        <v>594</v>
       </c>
       <c r="L176" s="4">
-        <v>567</v>
+        <v>162</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
@@ -7802,75 +7790,75 @@
         <v>186</v>
       </c>
       <c r="B177" s="7">
-        <v>7941</v>
+        <v>6303</v>
       </c>
       <c r="C177" s="4">
-        <v>824</v>
+        <v>480</v>
       </c>
       <c r="D177" s="4">
-        <v>392</v>
+        <v>140</v>
       </c>
       <c r="E177" s="4">
-        <v>605</v>
+        <v>558</v>
       </c>
       <c r="F177" s="4">
-        <v>908</v>
+        <v>484</v>
       </c>
       <c r="G177" s="4">
-        <v>1325</v>
+        <v>572</v>
       </c>
       <c r="H177" s="4">
-        <v>1348</v>
+        <v>943</v>
       </c>
       <c r="I177" s="4">
-        <v>871</v>
+        <v>963</v>
       </c>
       <c r="J177" s="4">
-        <v>1110</v>
+        <v>1058</v>
       </c>
       <c r="K177" s="4">
-        <v>292</v>
+        <v>442</v>
       </c>
       <c r="L177" s="4">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>187</v>
       </c>
       <c r="B178" s="7">
-        <v>10025</v>
+        <v>9115</v>
       </c>
       <c r="C178" s="4">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D178" s="4">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="E178" s="4">
-        <v>887</v>
+        <v>1078</v>
       </c>
       <c r="F178" s="4">
-        <v>1093</v>
+        <v>758</v>
       </c>
       <c r="G178" s="4">
-        <v>1363</v>
+        <v>1067</v>
       </c>
       <c r="H178" s="4">
-        <v>1382</v>
+        <v>1193</v>
       </c>
       <c r="I178" s="4">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="J178" s="4">
-        <v>1656</v>
+        <v>1490</v>
       </c>
       <c r="K178" s="4">
-        <v>589</v>
+        <v>526</v>
       </c>
       <c r="L178" s="4">
-        <v>291</v>
+        <v>256</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
@@ -7878,37 +7866,37 @@
         <v>188</v>
       </c>
       <c r="B179" s="7">
-        <v>11686</v>
+        <v>13345</v>
       </c>
       <c r="C179" s="4">
-        <v>1835</v>
+        <v>569</v>
       </c>
       <c r="D179" s="4">
-        <v>744</v>
+        <v>386</v>
       </c>
       <c r="E179" s="4">
-        <v>1344</v>
+        <v>977</v>
       </c>
       <c r="F179" s="4">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="G179" s="4">
-        <v>1242</v>
+        <v>1289</v>
       </c>
       <c r="H179" s="4">
-        <v>1843</v>
+        <v>2107</v>
       </c>
       <c r="I179" s="4">
-        <v>1282</v>
+        <v>2425</v>
       </c>
       <c r="J179" s="4">
-        <v>1516</v>
+        <v>2271</v>
       </c>
       <c r="K179" s="4">
-        <v>532</v>
+        <v>1397</v>
       </c>
       <c r="L179" s="4">
-        <v>334</v>
+        <v>909</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
@@ -7916,75 +7904,75 @@
         <v>189</v>
       </c>
       <c r="B180" s="7">
-        <v>6369</v>
+        <v>5438</v>
       </c>
       <c r="C180" s="4">
-        <v>784</v>
+        <v>434</v>
       </c>
       <c r="D180" s="4">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="E180" s="4">
-        <v>484</v>
+        <v>396</v>
       </c>
       <c r="F180" s="4">
-        <v>424</v>
+        <v>372</v>
       </c>
       <c r="G180" s="4">
-        <v>649</v>
+        <v>586</v>
       </c>
       <c r="H180" s="4">
-        <v>1056</v>
+        <v>844</v>
       </c>
       <c r="I180" s="4">
-        <v>940</v>
+        <v>743</v>
       </c>
       <c r="J180" s="4">
-        <v>921</v>
+        <v>983</v>
       </c>
       <c r="K180" s="4">
-        <v>594</v>
+        <v>412</v>
       </c>
       <c r="L180" s="4">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B181" s="7">
-        <v>6303</v>
+        <v>11096</v>
       </c>
       <c r="C181" s="4">
-        <v>480</v>
+        <v>397</v>
       </c>
       <c r="D181" s="4">
-        <v>140</v>
+        <v>384</v>
       </c>
       <c r="E181" s="4">
-        <v>558</v>
+        <v>594</v>
       </c>
       <c r="F181" s="4">
-        <v>484</v>
+        <v>705</v>
       </c>
       <c r="G181" s="4">
-        <v>572</v>
+        <v>1254</v>
       </c>
       <c r="H181" s="4">
-        <v>943</v>
+        <v>1718</v>
       </c>
       <c r="I181" s="4">
-        <v>963</v>
+        <v>1614</v>
       </c>
       <c r="J181" s="4">
-        <v>1058</v>
+        <v>2245</v>
       </c>
       <c r="K181" s="4">
-        <v>442</v>
+        <v>1143</v>
       </c>
       <c r="L181" s="4">
-        <v>663</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
@@ -7992,37 +7980,37 @@
         <v>191</v>
       </c>
       <c r="B182" s="7">
-        <v>9115</v>
+        <v>8752</v>
       </c>
       <c r="C182" s="4">
-        <v>977</v>
+        <v>492</v>
       </c>
       <c r="D182" s="4">
-        <v>521</v>
+        <v>489</v>
       </c>
       <c r="E182" s="4">
-        <v>1078</v>
+        <v>851</v>
       </c>
       <c r="F182" s="4">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="G182" s="4">
-        <v>1067</v>
+        <v>993</v>
       </c>
       <c r="H182" s="4">
-        <v>1193</v>
+        <v>1556</v>
       </c>
       <c r="I182" s="4">
-        <v>1249</v>
+        <v>971</v>
       </c>
       <c r="J182" s="4">
-        <v>1490</v>
+        <v>1372</v>
       </c>
       <c r="K182" s="4">
-        <v>526</v>
+        <v>839</v>
       </c>
       <c r="L182" s="4">
-        <v>256</v>
+        <v>435</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
@@ -8030,37 +8018,37 @@
         <v>192</v>
       </c>
       <c r="B183" s="7">
-        <v>13345</v>
+        <v>7881</v>
       </c>
       <c r="C183" s="4">
-        <v>569</v>
+        <v>333</v>
       </c>
       <c r="D183" s="4">
-        <v>386</v>
+        <v>250</v>
       </c>
       <c r="E183" s="4">
-        <v>977</v>
+        <v>630</v>
       </c>
       <c r="F183" s="4">
-        <v>1015</v>
+        <v>651</v>
       </c>
       <c r="G183" s="4">
-        <v>1289</v>
+        <v>929</v>
       </c>
       <c r="H183" s="4">
-        <v>2107</v>
+        <v>1171</v>
       </c>
       <c r="I183" s="4">
-        <v>2425</v>
+        <v>1123</v>
       </c>
       <c r="J183" s="4">
-        <v>2271</v>
+        <v>1452</v>
       </c>
       <c r="K183" s="4">
-        <v>1397</v>
+        <v>848</v>
       </c>
       <c r="L183" s="4">
-        <v>909</v>
+        <v>494</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
@@ -8068,75 +8056,75 @@
         <v>193</v>
       </c>
       <c r="B184" s="7">
-        <v>5438</v>
+        <v>9786</v>
       </c>
       <c r="C184" s="4">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="D184" s="4">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="E184" s="4">
-        <v>396</v>
+        <v>498</v>
       </c>
       <c r="F184" s="4">
-        <v>372</v>
+        <v>490</v>
       </c>
       <c r="G184" s="4">
-        <v>586</v>
+        <v>814</v>
       </c>
       <c r="H184" s="4">
-        <v>844</v>
+        <v>1500</v>
       </c>
       <c r="I184" s="4">
-        <v>743</v>
+        <v>1517</v>
       </c>
       <c r="J184" s="4">
-        <v>983</v>
+        <v>2112</v>
       </c>
       <c r="K184" s="4">
-        <v>412</v>
+        <v>1192</v>
       </c>
       <c r="L184" s="4">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>194</v>
       </c>
       <c r="B185" s="7">
-        <v>11096</v>
+        <v>7622</v>
       </c>
       <c r="C185" s="4">
-        <v>397</v>
+        <v>293</v>
       </c>
       <c r="D185" s="4">
-        <v>384</v>
+        <v>185</v>
       </c>
       <c r="E185" s="4">
-        <v>594</v>
+        <v>520</v>
       </c>
       <c r="F185" s="4">
-        <v>705</v>
+        <v>392</v>
       </c>
       <c r="G185" s="4">
-        <v>1254</v>
+        <v>665</v>
       </c>
       <c r="H185" s="4">
-        <v>1718</v>
+        <v>1388</v>
       </c>
       <c r="I185" s="4">
-        <v>1614</v>
+        <v>1087</v>
       </c>
       <c r="J185" s="4">
-        <v>2245</v>
+        <v>1426</v>
       </c>
       <c r="K185" s="4">
-        <v>1143</v>
+        <v>743</v>
       </c>
       <c r="L185" s="4">
-        <v>1042</v>
+        <v>923</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
@@ -8144,37 +8132,37 @@
         <v>195</v>
       </c>
       <c r="B186" s="7">
-        <v>8752</v>
+        <v>8194</v>
       </c>
       <c r="C186" s="4">
-        <v>492</v>
+        <v>274</v>
       </c>
       <c r="D186" s="4">
-        <v>489</v>
+        <v>214</v>
       </c>
       <c r="E186" s="4">
-        <v>851</v>
+        <v>650</v>
       </c>
       <c r="F186" s="4">
-        <v>754</v>
+        <v>655</v>
       </c>
       <c r="G186" s="4">
-        <v>993</v>
+        <v>910</v>
       </c>
       <c r="H186" s="4">
-        <v>1556</v>
+        <v>1378</v>
       </c>
       <c r="I186" s="4">
-        <v>971</v>
+        <v>1083</v>
       </c>
       <c r="J186" s="4">
-        <v>1372</v>
+        <v>1675</v>
       </c>
       <c r="K186" s="4">
-        <v>839</v>
+        <v>708</v>
       </c>
       <c r="L186" s="4">
-        <v>435</v>
+        <v>647</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
@@ -8182,37 +8170,37 @@
         <v>196</v>
       </c>
       <c r="B187" s="7">
-        <v>7881</v>
+        <v>6945</v>
       </c>
       <c r="C187" s="4">
-        <v>333</v>
+        <v>271</v>
       </c>
       <c r="D187" s="4">
-        <v>250</v>
+        <v>345</v>
       </c>
       <c r="E187" s="4">
-        <v>630</v>
+        <v>220</v>
       </c>
       <c r="F187" s="4">
-        <v>651</v>
+        <v>410</v>
       </c>
       <c r="G187" s="4">
-        <v>929</v>
+        <v>516</v>
       </c>
       <c r="H187" s="4">
-        <v>1171</v>
+        <v>1237</v>
       </c>
       <c r="I187" s="4">
-        <v>1123</v>
+        <v>962</v>
       </c>
       <c r="J187" s="4">
-        <v>1452</v>
+        <v>1421</v>
       </c>
       <c r="K187" s="4">
-        <v>848</v>
+        <v>755</v>
       </c>
       <c r="L187" s="4">
-        <v>494</v>
+        <v>808</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
@@ -8220,37 +8208,37 @@
         <v>197</v>
       </c>
       <c r="B188" s="7">
-        <v>9786</v>
+        <v>8805</v>
       </c>
       <c r="C188" s="4">
-        <v>459</v>
+        <v>315</v>
       </c>
       <c r="D188" s="4">
-        <v>274</v>
+        <v>186</v>
       </c>
       <c r="E188" s="4">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="F188" s="4">
-        <v>490</v>
+        <v>429</v>
       </c>
       <c r="G188" s="4">
-        <v>814</v>
+        <v>543</v>
       </c>
       <c r="H188" s="4">
-        <v>1500</v>
+        <v>1468</v>
       </c>
       <c r="I188" s="4">
-        <v>1517</v>
+        <v>1632</v>
       </c>
       <c r="J188" s="4">
-        <v>2112</v>
+        <v>2256</v>
       </c>
       <c r="K188" s="4">
-        <v>1192</v>
+        <v>829</v>
       </c>
       <c r="L188" s="4">
-        <v>930</v>
+        <v>675</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
@@ -8258,188 +8246,36 @@
         <v>198</v>
       </c>
       <c r="B189" s="7">
-        <v>7622</v>
+        <v>15289</v>
       </c>
       <c r="C189" s="4">
-        <v>293</v>
+        <v>363</v>
       </c>
       <c r="D189" s="4">
-        <v>185</v>
+        <v>476</v>
       </c>
       <c r="E189" s="4">
-        <v>520</v>
+        <v>834</v>
       </c>
       <c r="F189" s="4">
-        <v>392</v>
+        <v>868</v>
       </c>
       <c r="G189" s="4">
-        <v>665</v>
+        <v>1156</v>
       </c>
       <c r="H189" s="4">
-        <v>1388</v>
+        <v>2256</v>
       </c>
       <c r="I189" s="4">
-        <v>1087</v>
+        <v>2747</v>
       </c>
       <c r="J189" s="4">
-        <v>1426</v>
+        <v>3653</v>
       </c>
       <c r="K189" s="4">
-        <v>743</v>
+        <v>1768</v>
       </c>
       <c r="L189" s="4">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A190" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B190" s="7">
-        <v>8194</v>
-      </c>
-      <c r="C190" s="4">
-        <v>274</v>
-      </c>
-      <c r="D190" s="4">
-        <v>214</v>
-      </c>
-      <c r="E190" s="4">
-        <v>650</v>
-      </c>
-      <c r="F190" s="4">
-        <v>655</v>
-      </c>
-      <c r="G190" s="4">
-        <v>910</v>
-      </c>
-      <c r="H190" s="4">
-        <v>1378</v>
-      </c>
-      <c r="I190" s="4">
-        <v>1083</v>
-      </c>
-      <c r="J190" s="4">
-        <v>1675</v>
-      </c>
-      <c r="K190" s="4">
-        <v>708</v>
-      </c>
-      <c r="L190" s="4">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A191" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B191" s="7">
-        <v>6945</v>
-      </c>
-      <c r="C191" s="4">
-        <v>271</v>
-      </c>
-      <c r="D191" s="4">
-        <v>345</v>
-      </c>
-      <c r="E191" s="4">
-        <v>220</v>
-      </c>
-      <c r="F191" s="4">
-        <v>410</v>
-      </c>
-      <c r="G191" s="4">
-        <v>516</v>
-      </c>
-      <c r="H191" s="4">
-        <v>1237</v>
-      </c>
-      <c r="I191" s="4">
-        <v>962</v>
-      </c>
-      <c r="J191" s="4">
-        <v>1421</v>
-      </c>
-      <c r="K191" s="4">
-        <v>755</v>
-      </c>
-      <c r="L191" s="4">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A192" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B192" s="7">
-        <v>8805</v>
-      </c>
-      <c r="C192" s="4">
-        <v>315</v>
-      </c>
-      <c r="D192" s="4">
-        <v>186</v>
-      </c>
-      <c r="E192" s="4">
-        <v>472</v>
-      </c>
-      <c r="F192" s="4">
-        <v>429</v>
-      </c>
-      <c r="G192" s="4">
-        <v>543</v>
-      </c>
-      <c r="H192" s="4">
-        <v>1468</v>
-      </c>
-      <c r="I192" s="4">
-        <v>1632</v>
-      </c>
-      <c r="J192" s="4">
-        <v>2256</v>
-      </c>
-      <c r="K192" s="4">
-        <v>829</v>
-      </c>
-      <c r="L192" s="4">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A193" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B193" s="7">
-        <v>15289</v>
-      </c>
-      <c r="C193" s="4">
-        <v>363</v>
-      </c>
-      <c r="D193" s="4">
-        <v>476</v>
-      </c>
-      <c r="E193" s="4">
-        <v>834</v>
-      </c>
-      <c r="F193" s="4">
-        <v>868</v>
-      </c>
-      <c r="G193" s="4">
-        <v>1156</v>
-      </c>
-      <c r="H193" s="4">
-        <v>2256</v>
-      </c>
-      <c r="I193" s="4">
-        <v>2747</v>
-      </c>
-      <c r="J193" s="4">
-        <v>3653</v>
-      </c>
-      <c r="K193" s="4">
-        <v>1768</v>
-      </c>
-      <c r="L193" s="4">
         <v>1168</v>
       </c>
     </row>
